--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H\Honolulu_DTS\D3409300_RailActivation\Tools\GitHub\DTS-Complete-Streets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering-my.sharepoint.com/personal/ray_mangan_jacobs_com/Documents/Documents/GitHub/DTS-Complete-Streets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3BE2A500-98DD-4E6F-8337-3C11BB9DF194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:40009_{3BE2A500-98DD-4E6F-8337-3C11BB9DF194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B23AE6EE-8243-46FB-A52D-16F92E750F57}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="26415" windowHeight="14040"/>
+    <workbookView xWindow="6135" yWindow="255" windowWidth="28935" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$H$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$I$194</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="459">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1216,22 +1216,196 @@
     <t>Order</t>
   </si>
   <si>
-    <t>Maximum parcel to parcel width measurment along the line segment.</t>
-  </si>
-  <si>
-    <t>Minimum parcel to parcel width measurment along the line segment.</t>
-  </si>
-  <si>
     <t>Mean parcel to parcel width measurement along the line segment</t>
   </si>
   <si>
     <t>Aggregation of lane count values from multiple sources. See analysis notebook #5 for logic.</t>
+  </si>
+  <si>
+    <t>Maximum parcel to parcel width measurment along the line segment</t>
+  </si>
+  <si>
+    <t>Minimum parcel to parcel width measurment along the line segment</t>
+  </si>
+  <si>
+    <t>Analysis Notebook</t>
+  </si>
+  <si>
+    <t>Width of existing pedestrian facilities in the street cross section</t>
+  </si>
+  <si>
+    <t>Prefered width of proposed pedestrian facilities in the street cross section</t>
+  </si>
+  <si>
+    <t>Width of existing bus facilities in the street cross section (bus service lanes). Does not include width for bus stops. Bus Stop widths are included in Ped Width calculations.</t>
+  </si>
+  <si>
+    <t>Preferred width of existing bus facilities in the street cross section (bus service lanes). Does not include width for bus stops. Bus Stop widths are included in Ped Width calculations.</t>
+  </si>
+  <si>
+    <t>Estimated width of medians in the street cross section</t>
+  </si>
+  <si>
+    <t>Complete Street Type</t>
+  </si>
+  <si>
+    <t>Percent, by length, of line segment that intersects City &amp; County Urban Land Use Zones. See analysis notebook #6 for logic.</t>
+  </si>
+  <si>
+    <t>Length of line segment that intersects City &amp; County Urban Land Use Zones. See analysis notebook #6 for logic.</t>
+  </si>
+  <si>
+    <t>Length of line segment that intersects City &amp; County Ag Land Use Zones. See analysis notebook #6 for logic.</t>
+  </si>
+  <si>
+    <t>Percent, by length, of line segment that intersects City &amp; County Ag Land Use Zones. See analysis notebook #6 for logic.</t>
+  </si>
+  <si>
+    <t>Length of line segment in feet</t>
+  </si>
+  <si>
+    <t>Median land value of existing ROW. Uses median land value per square foot of all parcels within 1/4 mile of road segment.</t>
+  </si>
+  <si>
+    <t>Complete Street Example # as listed in the Complete Street Design Manual</t>
+  </si>
+  <si>
+    <t>Complete Street Example Type as listed in the Complete Street Design Manual</t>
+  </si>
+  <si>
+    <t>Prefered Width of existing Bike facilities in the street cross section. Includes facilites shared with other modal types such as shared bike/ped routes.</t>
+  </si>
+  <si>
+    <t>Estimated width of existing bike facilities in the street cross section. Includes facilites shared with other modal types such as shared bike/ped routes.</t>
+  </si>
+  <si>
+    <t>Prefered width of proposed Pedestrian facilities in the street cross section. Includes widths for Bus Stops.</t>
+  </si>
+  <si>
+    <t>Constrained width of existing &amp; proposed Bike facilities in the street cross section after Modal Prioritization Logic has been applied. Includes facilites shared with other modal types such as shared bike/ped routes.</t>
+  </si>
+  <si>
+    <t>Estimated Width of existing auto facilities (travel lanes) in the street cross section. Does not include on-street parking</t>
+  </si>
+  <si>
+    <t>Estimated width of existing on-street parking facilities in the street cross section</t>
+  </si>
+  <si>
+    <t>Prefered width of proposed on-street parking facilities in the street cross section. As no parking improvements or additions dataset was included in this analysis, all values are the same as modal_width_park_exist</t>
+  </si>
+  <si>
+    <t>Constrained width of existing &amp; proposed Medians in the street cross section after Modal Prioritization Logic has been applied.</t>
+  </si>
+  <si>
+    <t>Constrained width of existing &amp; proposed On-Street Parking facilities in the street cross section after Modal Prioritization Logic has been applied.</t>
+  </si>
+  <si>
+    <t>Constrained width of existing &amp; proposed Ped facilities in the street cross section after Modal Prioritization Logic has been applied. Includes widths for Bus Stops.</t>
+  </si>
+  <si>
+    <t>Constrained width of existing &amp; proposed Auto facilities in the street cross section after Modal Prioritization Logic has been applied.</t>
+  </si>
+  <si>
+    <t>Total Unconstrained Modal with of all indivudual modal widths in the street cross section. Shared facilites are accounted for in summation. See analysis notebook #5 for summation logic.</t>
+  </si>
+  <si>
+    <t>Area Estimate of ROW for line segment. Length of line segment multiplied by mean_row_2020. Units in square feet.</t>
+  </si>
+  <si>
+    <t>Constrained width of existing &amp; proposed Bus facilities in the street cross section (bus service lanes) after Modal Prioritization Logic has been applied. Does not include widths for Bus Stops. Bus Stop widths are included in Ped Width calculations.</t>
+  </si>
+  <si>
+    <t>Total Constrained Modal width of all individual modal widths in the street cross section. Shared facilites are accounted for in summation. See analysis notebook #8 for summation logic.</t>
+  </si>
+  <si>
+    <t>Estimate of total ROW area needed to incorporate all modal features with preferred widths. Length of line segment multiplied by modal_width_max. Units in square feet.</t>
+  </si>
+  <si>
+    <t>modal_area_max minus mean_row_area. Units in square feet. Postive values represent shortages in ROW area. Negative values represent possible ROW availablity.</t>
+  </si>
+  <si>
+    <t>Binary flag generated during Modal Prioritization to indicate if a Bike Route segment should be evaluted for being routed on a parallel street due to ROW constraints.</t>
+  </si>
+  <si>
+    <t>Revised lane count after Modal Prioritization logic applied</t>
+  </si>
+  <si>
+    <t>Binary flag generated during Modal Prioritization to indicate if a Complete Street Type shoud be re-evaluted due to ROW constraints. Feature with this flag passed through all Modal Prioritization logic steps and still had modal_width_const greater than ROW width.</t>
+  </si>
+  <si>
+    <t>Modal Width of Pedestrian Furniture Zone</t>
+  </si>
+  <si>
+    <t>Notes about ROW estimation performed</t>
+  </si>
+  <si>
+    <t>Modal Prioritization logic rule used for the line segment</t>
+  </si>
+  <si>
+    <t>Proposed lane count for Unconstrained Scenario. Includes added auto transit lanes for congested segments.</t>
+  </si>
+  <si>
+    <t>Lanes assumed during due to lack of lane count information from all other sources.</t>
+  </si>
+  <si>
+    <t>Lane count (existing) multiplied by line segment length, units coverted to miles</t>
+  </si>
+  <si>
+    <t>Lane count () multiplied by line segment length, units coverted to miles</t>
+  </si>
+  <si>
+    <t>Length of line segment that intersects Economic Justice areas. See analysis notebook #9 for logic.</t>
+  </si>
+  <si>
+    <t>Percent, by length, of line segment that intersects Economic Justice areas. See analysis notebook #9 for logic.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing and proposed (constrained) auto facilities (travel lanes) in the street segment. Does not include on-street parking. Calculated as modal_width_auto_const multiplied by lenth of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing auto facilities (travel lanes) in the street segment. Does not include on-street parking.  Calcluated as modal_width_auto_exist multiplied by length of line segment. Units in sq. feet.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing and proposed (unconstrained) auto facilities (travel lanes) in the street segment. Does not include on-street parking. Calculated as modal_width_auto_prop multiplied by lenth of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing and proposed (constrained) bike facilities in the street segment. Includes facilites shared with other modal types such as shared bike/ped routes. Calcluated as modal_width_bike_const multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing bike facilities in the street segment. Includes facilites shared with other modal types such as shared bike/ped routes. Calcluated as modal_width_bike_exist multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing and proposed (unconstrained) bike facilities in the street segment. Includes facilites shared with other modal types such as shared bike/ped routes. Calcluated as modal_width_bike_prop multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing bus facilities in the street segment (bus service lanes). Does not include areas for bus stops. Bus Stop areas are included in Ped Area calculations. Calculated as modal_width_bus_exist multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing and proposed (constrained) bus facilities in the street segment (bus service lanes). Does not include areas for bus stops. Bus Stop areas are included in Ped Area calculations. Calculated as modal_width_bus_const multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing and proposed (constrained) bus facilities in the street segment (bus service lanes). Does not include areas for bus stops. Bus Stop areas are included in Ped Area calculations. Calculated as modal_width_bus_prop multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated total ROW area needed to incorporate all modal features with constrained widths. Length of line segment multiplied by modal_width_const. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>remove?</t>
+  </si>
+  <si>
+    <t>Difference between modal_area_const and mean_row_area. Postive values represent area shortage for the constrained scenario. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Difference between modal_area_max and mean_row_area. Postive values represent area shortage for the unconstrained scenario. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing medians in the street segment.  Calculated as modal_width_medians_exist multiplied by length of line segment. Units in sq. ft.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1374,7 +1548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,6 +1728,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1715,7 +1895,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1724,6 +1904,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1769,7 +1957,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1780,6 +1990,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A18D098-8345-4BA7-B52C-9FA4ABDB1D73}" name="Table1" displayName="Table1" ref="A1:I194" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I194" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Project"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:I194">
+    <sortCondition ref="B1:B194"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{09DC4FFD-ACC6-4E0B-A0CD-5C7EB50C61BA}" name="Order"/>
+    <tableColumn id="2" xr3:uid="{ACF56D52-9D4C-480F-881D-A16E37BEA05C}" name="Field_Name"/>
+    <tableColumn id="3" xr3:uid="{3B892D61-8581-4125-A0E4-9331CF50111E}" name="Field_Alias"/>
+    <tableColumn id="4" xr3:uid="{06B89F55-D91C-4605-A67A-39BFBAD54684}" name="Field_Type"/>
+    <tableColumn id="5" xr3:uid="{0EEE211C-FF78-467F-B514-973633279E95}" name="Field_Length" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1F920E4B-18B2-43D2-A1C9-A7CD7BDF57B0}" name="Field_Domain"/>
+    <tableColumn id="7" xr3:uid="{5CF2E8BF-ACFD-4836-BB9E-151C04AA0D90}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{C2CE921D-DC3E-4ABB-BD6A-293E17D11321}" name="Analysis Notebook"/>
+    <tableColumn id="9" xr3:uid="{23F7EED1-A94B-49C7-AA8B-D613D2A103B8}" name="Source"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2078,26 +2315,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>396</v>
       </c>
@@ -2116,14 +2353,17 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2139,11 +2379,12 @@
       <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2"/>
+      <c r="I2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2159,11 +2400,12 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3"/>
+      <c r="I3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2179,11 +2421,12 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4"/>
+      <c r="I4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2199,11 +2442,12 @@
       <c r="E5" s="2">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5"/>
+      <c r="I5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2219,11 +2463,12 @@
       <c r="E6" s="2">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6"/>
+      <c r="I6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2239,11 +2484,12 @@
       <c r="E7" s="2">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7"/>
+      <c r="I7" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2259,11 +2505,12 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8"/>
+      <c r="I8" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2279,11 +2526,12 @@
       <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9"/>
+      <c r="I9" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2299,11 +2547,12 @@
       <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10"/>
+      <c r="I10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2322,11 +2571,12 @@
       <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11"/>
+      <c r="I11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2342,11 +2592,12 @@
       <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12"/>
+      <c r="I12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2362,11 +2613,12 @@
       <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13"/>
+      <c r="I13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2382,11 +2634,12 @@
       <c r="E14" s="2">
         <v>40</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14"/>
+      <c r="I14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2402,11 +2655,12 @@
       <c r="E15" s="2">
         <v>40</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15"/>
+      <c r="I15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2422,11 +2676,12 @@
       <c r="E16" s="2">
         <v>40</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16"/>
+      <c r="I16" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2442,11 +2697,12 @@
       <c r="E17" s="2">
         <v>40</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17"/>
+      <c r="I17" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2462,11 +2718,12 @@
       <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18"/>
+      <c r="I18" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2482,11 +2739,12 @@
       <c r="E19" s="2">
         <v>10</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19"/>
+      <c r="I19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2505,11 +2763,12 @@
       <c r="F20" t="s">
         <v>32</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20"/>
+      <c r="I20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2528,11 +2787,12 @@
       <c r="F21" t="s">
         <v>32</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21"/>
+      <c r="I21" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2551,11 +2811,12 @@
       <c r="F22" t="s">
         <v>37</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22"/>
+      <c r="I22" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2574,11 +2835,12 @@
       <c r="F23" t="s">
         <v>37</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23"/>
+      <c r="I23" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2597,11 +2859,12 @@
       <c r="F24" t="s">
         <v>42</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24"/>
+      <c r="I24" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2620,11 +2883,12 @@
       <c r="F25" t="s">
         <v>42</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25"/>
+      <c r="I25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2643,11 +2907,12 @@
       <c r="F26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26"/>
+      <c r="I26" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2666,11 +2931,12 @@
       <c r="F27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27"/>
+      <c r="I27" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2689,11 +2955,12 @@
       <c r="F28" t="s">
         <v>51</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28"/>
+      <c r="I28" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2712,11 +2979,12 @@
       <c r="F29" t="s">
         <v>51</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29"/>
+      <c r="I29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2735,11 +3003,12 @@
       <c r="F30" t="s">
         <v>56</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30"/>
+      <c r="I30" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2758,11 +3027,12 @@
       <c r="F31" t="s">
         <v>56</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31"/>
+      <c r="I31" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2781,11 +3051,12 @@
       <c r="F32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32"/>
+      <c r="I32" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2804,11 +3075,12 @@
       <c r="F33" t="s">
         <v>61</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33"/>
+      <c r="I33" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2827,11 +3099,12 @@
       <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34"/>
+      <c r="I34" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2850,11 +3123,12 @@
       <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35"/>
+      <c r="I35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2873,11 +3147,12 @@
       <c r="F36" t="s">
         <v>71</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36"/>
+      <c r="I36" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2896,11 +3171,12 @@
       <c r="F37" t="s">
         <v>71</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37"/>
+      <c r="I37" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2919,11 +3195,12 @@
       <c r="F38" t="s">
         <v>76</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38"/>
+      <c r="I38" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2942,11 +3219,12 @@
       <c r="F39" t="s">
         <v>76</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39"/>
+      <c r="I39" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2965,11 +3243,12 @@
       <c r="F40" t="s">
         <v>81</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40"/>
+      <c r="I40" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2988,11 +3267,12 @@
       <c r="F41" t="s">
         <v>84</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41"/>
+      <c r="I41" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3011,11 +3291,12 @@
       <c r="F42" t="s">
         <v>87</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42"/>
+      <c r="I42" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3034,11 +3315,12 @@
       <c r="F43" t="s">
         <v>90</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43"/>
+      <c r="I43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3054,11 +3336,12 @@
       <c r="E44" s="2">
         <v>4</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44"/>
+      <c r="I44" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3074,11 +3357,12 @@
       <c r="E45" s="2">
         <v>4</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45"/>
+      <c r="I45" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3094,11 +3378,12 @@
       <c r="E46" s="2">
         <v>4</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46"/>
+      <c r="I46" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3114,11 +3399,12 @@
       <c r="E47" s="2">
         <v>4</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47"/>
+      <c r="I47" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3134,11 +3420,12 @@
       <c r="E48" s="2">
         <v>50</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48"/>
+      <c r="I48" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3154,11 +3441,12 @@
       <c r="E49" s="2">
         <v>80</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49"/>
+      <c r="I49" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3174,11 +3462,12 @@
       <c r="E50" s="2">
         <v>4</v>
       </c>
-      <c r="H50" t="s">
+      <c r="G50"/>
+      <c r="I50" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3194,11 +3483,12 @@
       <c r="E51" s="2">
         <v>50</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51"/>
+      <c r="I51" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3214,11 +3504,12 @@
       <c r="E52" s="2">
         <v>80</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52"/>
+      <c r="I52" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3234,11 +3525,12 @@
       <c r="E53" s="2">
         <v>83</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53"/>
+      <c r="I53" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3254,11 +3546,12 @@
       <c r="E54" s="2">
         <v>50</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54"/>
+      <c r="I54" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3274,11 +3567,12 @@
       <c r="E55" s="2">
         <v>80</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55"/>
+      <c r="I55" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3294,11 +3588,12 @@
       <c r="E56" s="2">
         <v>83</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G56"/>
+      <c r="I56" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3314,11 +3609,12 @@
       <c r="E57" s="2">
         <v>80</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G57"/>
+      <c r="I57" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3334,11 +3630,12 @@
       <c r="E58" s="2">
         <v>83</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58"/>
+      <c r="I58" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3354,11 +3651,12 @@
       <c r="E59" s="2">
         <v>50</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59"/>
+      <c r="I59" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3374,11 +3672,12 @@
       <c r="E60" s="2">
         <v>4</v>
       </c>
-      <c r="H60" t="s">
+      <c r="G60"/>
+      <c r="I60" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3394,11 +3693,12 @@
       <c r="E61" s="2">
         <v>4</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61"/>
+      <c r="I61" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3414,11 +3714,12 @@
       <c r="E62" s="2">
         <v>4</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62"/>
+      <c r="I62" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3434,11 +3735,12 @@
       <c r="E63" s="2">
         <v>4</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63"/>
+      <c r="I63" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3454,11 +3756,12 @@
       <c r="E64" s="2">
         <v>4</v>
       </c>
-      <c r="H64" t="s">
+      <c r="G64"/>
+      <c r="I64" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3474,11 +3777,12 @@
       <c r="E65" s="2">
         <v>4</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G65"/>
+      <c r="I65" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3494,11 +3798,12 @@
       <c r="E66" s="2">
         <v>4</v>
       </c>
-      <c r="H66" t="s">
+      <c r="G66"/>
+      <c r="I66" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3514,11 +3819,12 @@
       <c r="E67" s="2">
         <v>4</v>
       </c>
-      <c r="H67" t="s">
+      <c r="G67"/>
+      <c r="I67" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3534,11 +3840,12 @@
       <c r="E68" s="2">
         <v>4</v>
       </c>
-      <c r="H68" t="s">
+      <c r="G68"/>
+      <c r="I68" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3554,11 +3861,12 @@
       <c r="E69" s="2">
         <v>4</v>
       </c>
-      <c r="H69" t="s">
+      <c r="G69"/>
+      <c r="I69" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3574,11 +3882,12 @@
       <c r="E70" s="2">
         <v>4</v>
       </c>
-      <c r="H70" t="s">
+      <c r="G70"/>
+      <c r="I70" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3594,11 +3903,12 @@
       <c r="E71" s="2">
         <v>4</v>
       </c>
-      <c r="H71" t="s">
+      <c r="G71"/>
+      <c r="I71" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3614,11 +3924,12 @@
       <c r="E72" s="2">
         <v>4</v>
       </c>
-      <c r="H72" t="s">
+      <c r="G72"/>
+      <c r="I72" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3634,80 +3945,81 @@
       <c r="E73" s="2">
         <v>8</v>
       </c>
-      <c r="H73" t="s">
+      <c r="G73"/>
+      <c r="I73" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>293</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="E74" s="2">
-        <v>8</v>
-      </c>
-      <c r="G74" t="s">
-        <v>397</v>
-      </c>
-      <c r="H74" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="I74" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="E75" s="2">
-        <v>8</v>
-      </c>
-      <c r="G75" t="s">
-        <v>398</v>
-      </c>
-      <c r="H75" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="I75" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="E76" s="2">
-        <v>8</v>
-      </c>
-      <c r="G76" t="s">
-        <v>399</v>
-      </c>
-      <c r="H76" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="I76" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3723,11 +4035,12 @@
       <c r="E77" s="2">
         <v>255</v>
       </c>
-      <c r="H77" t="s">
+      <c r="G77"/>
+      <c r="I77" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3743,11 +4056,12 @@
       <c r="E78" s="2">
         <v>255</v>
       </c>
-      <c r="H78" t="s">
+      <c r="G78"/>
+      <c r="I78" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3763,11 +4077,12 @@
       <c r="E79" s="2">
         <v>4</v>
       </c>
-      <c r="H79" t="s">
+      <c r="G79"/>
+      <c r="I79" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3783,11 +4098,12 @@
       <c r="E80" s="2">
         <v>8</v>
       </c>
-      <c r="H80" t="s">
+      <c r="G80"/>
+      <c r="I80" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3803,11 +4119,12 @@
       <c r="E81" s="2">
         <v>8</v>
       </c>
-      <c r="H81" t="s">
+      <c r="G81"/>
+      <c r="I81" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3823,11 +4140,12 @@
       <c r="E82" s="2">
         <v>4</v>
       </c>
-      <c r="H82" t="s">
+      <c r="G82"/>
+      <c r="I82" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3843,8 +4161,9 @@
       <c r="E83" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3860,11 +4179,12 @@
       <c r="E84" s="2">
         <v>4</v>
       </c>
-      <c r="H84" t="s">
+      <c r="G84"/>
+      <c r="I84" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3880,11 +4200,12 @@
       <c r="E85" s="2">
         <v>50</v>
       </c>
-      <c r="H85" t="s">
+      <c r="G85"/>
+      <c r="I85" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3900,11 +4221,12 @@
       <c r="E86" s="2">
         <v>4</v>
       </c>
-      <c r="H86" t="s">
+      <c r="G86"/>
+      <c r="I86" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3920,11 +4242,12 @@
       <c r="E87" s="2">
         <v>4</v>
       </c>
-      <c r="H87" t="s">
+      <c r="G87"/>
+      <c r="I87" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3940,11 +4263,12 @@
       <c r="E88" s="2">
         <v>2</v>
       </c>
-      <c r="H88" t="s">
+      <c r="G88"/>
+      <c r="I88" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3960,11 +4284,12 @@
       <c r="E89" s="2">
         <v>2</v>
       </c>
-      <c r="H89" t="s">
+      <c r="G89"/>
+      <c r="I89" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3980,11 +4305,12 @@
       <c r="E90" s="2">
         <v>2</v>
       </c>
-      <c r="H90" t="s">
+      <c r="G90"/>
+      <c r="I90" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4000,11 +4326,12 @@
       <c r="E91" s="2">
         <v>2</v>
       </c>
-      <c r="H91" t="s">
+      <c r="G91"/>
+      <c r="I91" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4020,11 +4347,12 @@
       <c r="E92" s="2">
         <v>2</v>
       </c>
-      <c r="H92" t="s">
+      <c r="G92"/>
+      <c r="I92" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4040,11 +4368,12 @@
       <c r="E93" s="2">
         <v>8</v>
       </c>
-      <c r="H93" t="s">
+      <c r="G93"/>
+      <c r="I93" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4060,11 +4389,12 @@
       <c r="E94" s="2">
         <v>2</v>
       </c>
-      <c r="H94" t="s">
+      <c r="G94"/>
+      <c r="I94" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4080,11 +4410,12 @@
       <c r="E95" s="2">
         <v>2</v>
       </c>
-      <c r="H95" t="s">
+      <c r="G95"/>
+      <c r="I95" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4100,11 +4431,12 @@
       <c r="E96" s="2">
         <v>2</v>
       </c>
-      <c r="H96" t="s">
+      <c r="G96"/>
+      <c r="I96" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4120,39 +4452,43 @@
       <c r="E97" s="2">
         <v>2</v>
       </c>
-      <c r="H97" t="s">
+      <c r="G97"/>
+      <c r="I97" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="D98" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="E98" s="2">
-        <v>2</v>
-      </c>
-      <c r="H98" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I98" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="D99" t="s">
         <v>181</v>
@@ -4160,79 +4496,91 @@
       <c r="E99" s="2">
         <v>2</v>
       </c>
-      <c r="H99" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="I99" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>376</v>
       </c>
       <c r="C100" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2">
-        <v>2</v>
-      </c>
-      <c r="H100" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I100" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>379</v>
       </c>
       <c r="D101" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E101" s="2">
-        <v>2</v>
-      </c>
-      <c r="H101" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I101" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="C102" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="D102" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E102" s="2">
-        <v>2</v>
-      </c>
-      <c r="H102" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="I102" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>207</v>
+        <v>151</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="C103" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="D103" t="s">
         <v>181</v>
@@ -4240,19 +4588,22 @@
       <c r="E103" s="2">
         <v>2</v>
       </c>
-      <c r="H103" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I103" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>209</v>
+        <v>158</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="C104" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="D104" t="s">
         <v>181</v>
@@ -4260,39 +4611,42 @@
       <c r="E104" s="2">
         <v>2</v>
       </c>
-      <c r="H104" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I104" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="D105" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="E105" s="2">
-        <v>2</v>
-      </c>
-      <c r="H105" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I105" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>213</v>
+        <v>152</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="D106" t="s">
         <v>181</v>
@@ -4300,19 +4654,22 @@
       <c r="E106" s="2">
         <v>2</v>
       </c>
-      <c r="H106" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="I106" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>215</v>
+        <v>146</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="C107" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="D107" t="s">
         <v>181</v>
@@ -4320,51 +4677,60 @@
       <c r="E107" s="2">
         <v>2</v>
       </c>
-      <c r="H107" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="I107" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>217</v>
+        <v>153</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="D108" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E108" s="2">
-        <v>2</v>
-      </c>
-      <c r="H108" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I108" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="D109" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E109" s="2">
-        <v>2</v>
-      </c>
-      <c r="H109" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I109" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4380,174 +4746,196 @@
       <c r="E110" s="2">
         <v>50</v>
       </c>
-      <c r="H110" t="s">
+      <c r="G110"/>
+      <c r="I110" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
+        <v>159</v>
+      </c>
+      <c r="B111" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" t="s">
+        <v>310</v>
+      </c>
+      <c r="D111" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111" s="2">
+        <v>4</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I111" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>154</v>
+      </c>
+      <c r="B112" t="s">
+        <v>311</v>
+      </c>
+      <c r="C112" t="s">
+        <v>312</v>
+      </c>
+      <c r="D112" t="s">
+        <v>241</v>
+      </c>
+      <c r="E112" s="2">
+        <v>4</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I112" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>155</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" t="s">
+        <v>314</v>
+      </c>
+      <c r="D113" t="s">
+        <v>241</v>
+      </c>
+      <c r="E113" s="2">
+        <v>4</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I113" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B114" t="s">
         <v>223</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C114" t="s">
         <v>224</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D114" t="s">
         <v>181</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E114" s="2">
         <v>2</v>
       </c>
-      <c r="G111" t="s">
-        <v>400</v>
-      </c>
-      <c r="H111" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>225</v>
-      </c>
-      <c r="C112" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="G114" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I114" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" t="s">
+        <v>243</v>
+      </c>
+      <c r="D115" t="s">
         <v>150</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E115" s="2">
         <v>8</v>
       </c>
-      <c r="H112" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
-      <c r="C113" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="2">
-        <v>50</v>
-      </c>
-      <c r="H113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>229</v>
-      </c>
-      <c r="C114" t="s">
-        <v>230</v>
-      </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="2">
-        <v>50</v>
-      </c>
-      <c r="H114" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>231</v>
-      </c>
-      <c r="C115" t="s">
-        <v>232</v>
-      </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="2">
-        <v>255</v>
-      </c>
-      <c r="H115" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="I115" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D116" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E116" s="2">
-        <v>2</v>
-      </c>
-      <c r="H116" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I116" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="E117" s="2">
-        <v>30</v>
-      </c>
-      <c r="H117" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="I117" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C118" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2">
-        <v>30</v>
-      </c>
-      <c r="H118" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I118" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4563,19 +4951,22 @@
       <c r="E119" s="2">
         <v>4</v>
       </c>
-      <c r="H119" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G119" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I119" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="C120" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="D120" t="s">
         <v>150</v>
@@ -4583,19 +4974,22 @@
       <c r="E120" s="2">
         <v>8</v>
       </c>
-      <c r="H120" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G120" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I120" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="D121" t="s">
         <v>150</v>
@@ -4603,19 +4997,22 @@
       <c r="E121" s="2">
         <v>8</v>
       </c>
-      <c r="H121" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I121" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D122" t="s">
         <v>241</v>
@@ -4623,91 +5020,97 @@
       <c r="E122" s="2">
         <v>4</v>
       </c>
-      <c r="H122" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="I122" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="C123" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2">
-        <v>4</v>
-      </c>
-      <c r="H123" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I123" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D124" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="E124" s="2">
-        <v>4</v>
-      </c>
-      <c r="H124" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I124" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="D125" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="E125" s="2">
-        <v>4</v>
-      </c>
-      <c r="H125" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I125" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="C126" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="D126" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2">
-        <v>4</v>
-      </c>
-      <c r="H126" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I126" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4723,11 +5126,12 @@
       <c r="E127" s="2">
         <v>12</v>
       </c>
-      <c r="H127" t="s">
+      <c r="G127"/>
+      <c r="I127" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4743,11 +5147,12 @@
       <c r="E128" s="2">
         <v>4</v>
       </c>
-      <c r="H128" t="s">
+      <c r="G128"/>
+      <c r="I128" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4763,11 +5168,12 @@
       <c r="E129" s="2">
         <v>2</v>
       </c>
-      <c r="H129" t="s">
+      <c r="G129"/>
+      <c r="I129" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4783,11 +5189,12 @@
       <c r="E130" s="2">
         <v>45</v>
       </c>
-      <c r="H130" t="s">
+      <c r="G130"/>
+      <c r="I130" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4803,11 +5210,12 @@
       <c r="E131" s="2">
         <v>15</v>
       </c>
-      <c r="H131" t="s">
+      <c r="G131"/>
+      <c r="I131" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4823,11 +5231,12 @@
       <c r="E132" s="2">
         <v>2</v>
       </c>
-      <c r="H132" t="s">
+      <c r="G132"/>
+      <c r="I132" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4843,11 +5252,12 @@
       <c r="E133" s="2">
         <v>2</v>
       </c>
-      <c r="H133" t="s">
+      <c r="G133"/>
+      <c r="I133" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4863,11 +5273,12 @@
       <c r="E134" s="2">
         <v>2</v>
       </c>
-      <c r="H134" t="s">
+      <c r="G134"/>
+      <c r="I134" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4883,11 +5294,12 @@
       <c r="E135" s="2">
         <v>8</v>
       </c>
-      <c r="H135" t="s">
+      <c r="G135"/>
+      <c r="I135" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4903,19 +5315,20 @@
       <c r="E136" s="2">
         <v>8</v>
       </c>
-      <c r="H136" t="s">
+      <c r="G136"/>
+      <c r="I136" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C137" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="D137" t="s">
         <v>241</v>
@@ -4923,159 +5336,183 @@
       <c r="E137" s="2">
         <v>4</v>
       </c>
-      <c r="H137" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G137" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="I137" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="D138" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E138" s="2">
-        <v>2</v>
-      </c>
-      <c r="H138" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I138" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="C139" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="D139" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E139" s="2">
-        <v>2</v>
-      </c>
-      <c r="H139" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="I139" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="B140" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="C140" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D140" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E140" s="2">
-        <v>2</v>
-      </c>
-      <c r="H140" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I140" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B141" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="C141" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="D141" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E141" s="2">
-        <v>2</v>
-      </c>
-      <c r="H141" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="I141" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B142" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="C142" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="D142" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E142" s="2">
-        <v>2</v>
-      </c>
-      <c r="H142" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="I142" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="C143" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="D143" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E143" s="2">
-        <v>2</v>
-      </c>
-      <c r="H143" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I143" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C144" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="D144" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E144" s="2">
-        <v>2</v>
-      </c>
-      <c r="H144" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="I144" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="C145" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="D145" t="s">
         <v>241</v>
@@ -5083,19 +5520,22 @@
       <c r="E145" s="2">
         <v>4</v>
       </c>
-      <c r="H145" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G145" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="I145" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C146" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D146" t="s">
         <v>241</v>
@@ -5103,179 +5543,206 @@
       <c r="E146" s="2">
         <v>4</v>
       </c>
-      <c r="H146" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G146" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I146" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="B147" t="s">
-        <v>293</v>
-      </c>
-      <c r="C147" t="s">
-        <v>294</v>
+        <v>373</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="D147" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E147" s="2">
-        <v>2</v>
-      </c>
-      <c r="H147" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="I147" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
-      </c>
-      <c r="C148" t="s">
-        <v>296</v>
+        <v>252</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="D148" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E148" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H148" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="I148" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>297</v>
-      </c>
-      <c r="C149" t="s">
-        <v>298</v>
+        <v>291</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="D149" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E149" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H149" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="I149" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="C150" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="E150" s="2">
-        <v>255</v>
-      </c>
-      <c r="H150" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="I150" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
-      </c>
-      <c r="C151" t="s">
-        <v>302</v>
+        <v>371</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="D151" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E151" s="2">
-        <v>2</v>
-      </c>
-      <c r="H151" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I151" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="E152" s="2">
-        <v>255</v>
-      </c>
-      <c r="H152" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I152" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="C153" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="D153" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E153" s="2">
-        <v>2</v>
-      </c>
-      <c r="H153" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="I153" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B154" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="C154" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="D154" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E154" s="2">
-        <v>2</v>
-      </c>
-      <c r="H154" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I154" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B155" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="C155" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="D155" t="s">
         <v>241</v>
@@ -5283,19 +5750,19 @@
       <c r="E155" s="2">
         <v>4</v>
       </c>
-      <c r="H155" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="C156" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="D156" t="s">
         <v>241</v>
@@ -5303,19 +5770,19 @@
       <c r="E156" s="2">
         <v>4</v>
       </c>
-      <c r="H156" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="C157" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="D157" t="s">
         <v>241</v>
@@ -5323,419 +5790,455 @@
       <c r="E157" s="2">
         <v>4</v>
       </c>
-      <c r="H157" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D158" t="s">
+        <v>241</v>
+      </c>
+      <c r="E158" s="2">
+        <v>4</v>
+      </c>
+      <c r="I158" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>321</v>
+      </c>
+      <c r="C159" t="s">
+        <v>322</v>
+      </c>
+      <c r="D159" t="s">
+        <v>241</v>
+      </c>
+      <c r="E159" s="2">
+        <v>4</v>
+      </c>
+      <c r="I159" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160" t="s">
+        <v>324</v>
+      </c>
+      <c r="D160" t="s">
+        <v>241</v>
+      </c>
+      <c r="E160" s="2">
+        <v>4</v>
+      </c>
+      <c r="I160" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>138</v>
+      </c>
+      <c r="B161" t="s">
+        <v>279</v>
+      </c>
+      <c r="C161" t="s">
+        <v>280</v>
+      </c>
+      <c r="D161" t="s">
+        <v>181</v>
+      </c>
+      <c r="E161" s="2">
+        <v>2</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I161" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>100</v>
+      </c>
+      <c r="B162" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" t="s">
+        <v>206</v>
+      </c>
+      <c r="D162" t="s">
+        <v>181</v>
+      </c>
+      <c r="E162" s="2">
+        <v>2</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I162" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>101</v>
+      </c>
+      <c r="B163" t="s">
+        <v>207</v>
+      </c>
+      <c r="C163" t="s">
+        <v>208</v>
+      </c>
+      <c r="D163" t="s">
+        <v>181</v>
+      </c>
+      <c r="E163" s="2">
+        <v>2</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I163" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>148</v>
+      </c>
+      <c r="B164" t="s">
+        <v>299</v>
+      </c>
+      <c r="C164" t="s">
+        <v>300</v>
+      </c>
+      <c r="D164" t="s">
         <v>14</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E164" s="2">
         <v>255</v>
       </c>
-      <c r="H158" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>317</v>
-      </c>
-      <c r="C159" t="s">
-        <v>317</v>
-      </c>
-      <c r="D159" t="s">
-        <v>150</v>
-      </c>
-      <c r="E159" s="2">
-        <v>8</v>
-      </c>
-      <c r="H159" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>318</v>
-      </c>
-      <c r="C160" t="s">
-        <v>306</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="G164" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I164" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>137</v>
+      </c>
+      <c r="B165" t="s">
+        <v>277</v>
+      </c>
+      <c r="C165" t="s">
+        <v>278</v>
+      </c>
+      <c r="D165" t="s">
         <v>181</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E165" s="2">
         <v>2</v>
       </c>
-      <c r="H160" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>319</v>
-      </c>
-      <c r="C161" t="s">
-        <v>310</v>
-      </c>
-      <c r="D161" t="s">
-        <v>241</v>
-      </c>
-      <c r="E161" s="2">
-        <v>4</v>
-      </c>
-      <c r="H161" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>320</v>
-      </c>
-      <c r="C162" t="s">
-        <v>314</v>
-      </c>
-      <c r="D162" t="s">
-        <v>241</v>
-      </c>
-      <c r="E162" s="2">
-        <v>4</v>
-      </c>
-      <c r="H162" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>321</v>
-      </c>
-      <c r="C163" t="s">
-        <v>322</v>
-      </c>
-      <c r="D163" t="s">
-        <v>241</v>
-      </c>
-      <c r="E163" s="2">
-        <v>4</v>
-      </c>
-      <c r="H163" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>323</v>
-      </c>
-      <c r="C164" t="s">
-        <v>324</v>
-      </c>
-      <c r="D164" t="s">
-        <v>241</v>
-      </c>
-      <c r="E164" s="2">
-        <v>4</v>
-      </c>
-      <c r="H164" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>325</v>
-      </c>
-      <c r="C165" t="s">
-        <v>326</v>
-      </c>
-      <c r="D165" t="s">
-        <v>241</v>
-      </c>
-      <c r="E165" s="2">
-        <v>4</v>
-      </c>
-      <c r="H165" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G165" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="I165" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="C166" t="s">
-        <v>328</v>
+        <v>202</v>
       </c>
       <c r="D166" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E166" s="2">
-        <v>4</v>
-      </c>
-      <c r="H166" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I166" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="B167" t="s">
-        <v>329</v>
+        <v>203</v>
       </c>
       <c r="C167" t="s">
-        <v>330</v>
+        <v>204</v>
       </c>
       <c r="D167" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E167" s="2">
-        <v>4</v>
-      </c>
-      <c r="H167" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I167" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="C168" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="D168" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E168" s="2">
-        <v>4</v>
-      </c>
-      <c r="H168" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I168" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B169" t="s">
-        <v>333</v>
+        <v>209</v>
       </c>
       <c r="C169" t="s">
-        <v>334</v>
+        <v>210</v>
       </c>
       <c r="D169" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E169" s="2">
-        <v>4</v>
-      </c>
-      <c r="H169" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I169" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>211</v>
       </c>
       <c r="C170" t="s">
-        <v>336</v>
+        <v>212</v>
       </c>
       <c r="D170" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E170" s="2">
-        <v>4</v>
-      </c>
-      <c r="H170" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I170" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B171" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="C171" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="D171" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E171" s="2">
-        <v>4</v>
-      </c>
-      <c r="H171" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I171" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B172" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="C172" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="D172" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="E172" s="2">
-        <v>4</v>
-      </c>
-      <c r="H172" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I172" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B173" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C173" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="D173" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E173" s="2">
-        <v>4</v>
-      </c>
-      <c r="H173" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I173" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C174" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D174" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E174" s="2">
-        <v>4</v>
-      </c>
-      <c r="H174" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I174" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B175" t="s">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="C175" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="D175" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E175" s="2">
-        <v>4</v>
-      </c>
-      <c r="H175" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="I175" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C176" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="D176" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="E176" s="2">
-        <v>4</v>
-      </c>
-      <c r="H176" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I176" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C177" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D177" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E177" s="2">
-        <v>4</v>
-      </c>
-      <c r="H177" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I177" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="B178" t="s">
-        <v>351</v>
+        <v>217</v>
       </c>
       <c r="C178" t="s">
-        <v>352</v>
+        <v>218</v>
       </c>
       <c r="D178" t="s">
         <v>181</v>
@@ -5743,79 +6246,88 @@
       <c r="E178" s="2">
         <v>2</v>
       </c>
+      <c r="G178" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="H178" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="I178" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="B179" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="D179" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E179" s="2">
-        <v>4</v>
-      </c>
-      <c r="H179" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="I179" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C180" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D180" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E180" s="2">
-        <v>4</v>
-      </c>
-      <c r="H180" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I180" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C181" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D181" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="E181" s="2">
-        <v>4</v>
-      </c>
-      <c r="H181" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I181" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B182" t="s">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="C182" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="D182" t="s">
         <v>181</v>
@@ -5823,59 +6335,68 @@
       <c r="E182" s="2">
         <v>2</v>
       </c>
-      <c r="H182" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G182" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I182" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
+        <v>104</v>
+      </c>
+      <c r="B183" t="s">
+        <v>213</v>
+      </c>
+      <c r="C183" t="s">
+        <v>214</v>
+      </c>
+      <c r="D183" t="s">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
-        <v>361</v>
-      </c>
-      <c r="C183" t="s">
-        <v>362</v>
-      </c>
-      <c r="D183" t="s">
-        <v>14</v>
-      </c>
       <c r="E183" s="2">
-        <v>255</v>
-      </c>
-      <c r="H183" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I183" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="B184" t="s">
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="C184" t="s">
-        <v>364</v>
+        <v>216</v>
       </c>
       <c r="D184" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="E184" s="2">
-        <v>255</v>
-      </c>
-      <c r="H184" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I184" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="B185" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="C185" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="D185" t="s">
         <v>181</v>
@@ -5883,19 +6404,22 @@
       <c r="E185" s="2">
         <v>2</v>
       </c>
-      <c r="H185" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G185" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I185" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>197</v>
       </c>
       <c r="C186" t="s">
-        <v>368</v>
+        <v>198</v>
       </c>
       <c r="D186" t="s">
         <v>181</v>
@@ -5903,19 +6427,22 @@
       <c r="E186" s="2">
         <v>2</v>
       </c>
-      <c r="H186" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G186" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I186" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="C187" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="D187" t="s">
         <v>181</v>
@@ -5923,160 +6450,165 @@
       <c r="E187" s="2">
         <v>2</v>
       </c>
-      <c r="H187" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G187" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="I187" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="B188" t="s">
-        <v>371</v>
+        <v>199</v>
       </c>
       <c r="C188" t="s">
-        <v>372</v>
+        <v>200</v>
       </c>
       <c r="D188" t="s">
+        <v>181</v>
+      </c>
+      <c r="E188" s="2">
+        <v>2</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I188" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>113</v>
+      </c>
+      <c r="B189" t="s">
+        <v>231</v>
+      </c>
+      <c r="C189" t="s">
+        <v>232</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="2">
+        <v>255</v>
+      </c>
+      <c r="I189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>150</v>
+      </c>
+      <c r="B190" t="s">
+        <v>303</v>
+      </c>
+      <c r="C190" t="s">
+        <v>304</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" s="2">
+        <v>255</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="I190" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>188</v>
+      </c>
+      <c r="B191" t="s">
+        <v>374</v>
+      </c>
+      <c r="C191" t="s">
+        <v>375</v>
+      </c>
+      <c r="D191" t="s">
         <v>241</v>
       </c>
-      <c r="E188" s="2">
-        <v>4</v>
-      </c>
-      <c r="H188" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>373</v>
-      </c>
-      <c r="C189" t="s">
-        <v>372</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="E191" s="2">
+        <v>4</v>
+      </c>
+      <c r="I191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192" t="s">
+        <v>381</v>
+      </c>
+      <c r="D192" t="s">
+        <v>150</v>
+      </c>
+      <c r="E192" s="2">
+        <v>8</v>
+      </c>
+      <c r="I192" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>382</v>
+      </c>
+      <c r="C193" t="s">
+        <v>383</v>
+      </c>
+      <c r="D193" t="s">
         <v>241</v>
       </c>
-      <c r="E189" s="2">
-        <v>4</v>
-      </c>
-      <c r="H189" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>188</v>
-      </c>
-      <c r="B190" t="s">
-        <v>374</v>
-      </c>
-      <c r="C190" t="s">
-        <v>375</v>
-      </c>
-      <c r="D190" t="s">
-        <v>241</v>
-      </c>
-      <c r="E190" s="2">
-        <v>4</v>
-      </c>
-      <c r="H190" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>376</v>
-      </c>
-      <c r="C191" t="s">
-        <v>377</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="E193" s="2">
+        <v>4</v>
+      </c>
+      <c r="I193" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>110</v>
+      </c>
+      <c r="B194" t="s">
+        <v>225</v>
+      </c>
+      <c r="C194" t="s">
+        <v>226</v>
+      </c>
+      <c r="D194" t="s">
         <v>150</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E194" s="2">
         <v>8</v>
       </c>
-      <c r="H191" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>190</v>
-      </c>
-      <c r="B192" t="s">
-        <v>378</v>
-      </c>
-      <c r="C192" t="s">
-        <v>379</v>
-      </c>
-      <c r="D192" t="s">
-        <v>241</v>
-      </c>
-      <c r="E192" s="2">
-        <v>4</v>
-      </c>
-      <c r="H192" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>191</v>
-      </c>
-      <c r="B193" t="s">
-        <v>380</v>
-      </c>
-      <c r="C193" t="s">
-        <v>381</v>
-      </c>
-      <c r="D193" t="s">
-        <v>150</v>
-      </c>
-      <c r="E193" s="2">
-        <v>8</v>
-      </c>
-      <c r="H193" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>192</v>
-      </c>
-      <c r="B194" t="s">
-        <v>382</v>
-      </c>
-      <c r="C194" t="s">
-        <v>383</v>
-      </c>
-      <c r="D194" t="s">
-        <v>241</v>
-      </c>
-      <c r="E194" s="2">
-        <v>4</v>
-      </c>
-      <c r="H194" t="s">
+      <c r="I194" t="s">
         <v>389</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H194">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Project"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering-my.sharepoint.com/personal/ray_mangan_jacobs_com/Documents/Documents/GitHub/DTS-Complete-Streets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:40009_{3BE2A500-98DD-4E6F-8337-3C11BB9DF194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B23AE6EE-8243-46FB-A52D-16F92E750F57}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="13_ncr:40009_{3BE2A500-98DD-4E6F-8337-3C11BB9DF194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5192FE5C-5194-478A-8F90-22F178CFC5FD}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="255" windowWidth="28935" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="840" windowWidth="31950" windowHeight="18045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$I$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$K$194</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="485">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1174,9 +1174,6 @@
     <t>SLR_percent</t>
   </si>
   <si>
-    <t>Sea Leve Rise Exposure %</t>
-  </si>
-  <si>
     <t>DPP Street Centerline</t>
   </si>
   <si>
@@ -1228,12 +1225,6 @@
     <t>Minimum parcel to parcel width measurment along the line segment</t>
   </si>
   <si>
-    <t>Analysis Notebook</t>
-  </si>
-  <si>
-    <t>Width of existing pedestrian facilities in the street cross section</t>
-  </si>
-  <si>
     <t>Prefered width of proposed pedestrian facilities in the street cross section</t>
   </si>
   <si>
@@ -1261,9 +1252,6 @@
     <t>Percent, by length, of line segment that intersects City &amp; County Ag Land Use Zones. See analysis notebook #6 for logic.</t>
   </si>
   <si>
-    <t>Length of line segment in feet</t>
-  </si>
-  <si>
     <t>Median land value of existing ROW. Uses median land value per square foot of all parcels within 1/4 mile of road segment.</t>
   </si>
   <si>
@@ -1306,9 +1294,6 @@
     <t>Constrained width of existing &amp; proposed Auto facilities in the street cross section after Modal Prioritization Logic has been applied.</t>
   </si>
   <si>
-    <t>Total Unconstrained Modal with of all indivudual modal widths in the street cross section. Shared facilites are accounted for in summation. See analysis notebook #5 for summation logic.</t>
-  </si>
-  <si>
     <t>Area Estimate of ROW for line segment. Length of line segment multiplied by mean_row_2020. Units in square feet.</t>
   </si>
   <si>
@@ -1318,21 +1303,12 @@
     <t>Total Constrained Modal width of all individual modal widths in the street cross section. Shared facilites are accounted for in summation. See analysis notebook #8 for summation logic.</t>
   </si>
   <si>
-    <t>Estimate of total ROW area needed to incorporate all modal features with preferred widths. Length of line segment multiplied by modal_width_max. Units in square feet.</t>
-  </si>
-  <si>
     <t>modal_area_max minus mean_row_area. Units in square feet. Postive values represent shortages in ROW area. Negative values represent possible ROW availablity.</t>
   </si>
   <si>
     <t>Binary flag generated during Modal Prioritization to indicate if a Bike Route segment should be evaluted for being routed on a parallel street due to ROW constraints.</t>
   </si>
   <si>
-    <t>Revised lane count after Modal Prioritization logic applied</t>
-  </si>
-  <si>
-    <t>Binary flag generated during Modal Prioritization to indicate if a Complete Street Type shoud be re-evaluted due to ROW constraints. Feature with this flag passed through all Modal Prioritization logic steps and still had modal_width_const greater than ROW width.</t>
-  </si>
-  <si>
     <t>Modal Width of Pedestrian Furniture Zone</t>
   </si>
   <si>
@@ -1351,55 +1327,157 @@
     <t>Lane count (existing) multiplied by line segment length, units coverted to miles</t>
   </si>
   <si>
-    <t>Lane count () multiplied by line segment length, units coverted to miles</t>
-  </si>
-  <si>
     <t>Length of line segment that intersects Economic Justice areas. See analysis notebook #9 for logic.</t>
   </si>
   <si>
     <t>Percent, by length, of line segment that intersects Economic Justice areas. See analysis notebook #9 for logic.</t>
   </si>
   <si>
-    <t>Estimated area of existing and proposed (constrained) auto facilities (travel lanes) in the street segment. Does not include on-street parking. Calculated as modal_width_auto_const multiplied by lenth of line segment. Units in sq. ft.</t>
-  </si>
-  <si>
     <t>Estimated area of existing auto facilities (travel lanes) in the street segment. Does not include on-street parking.  Calcluated as modal_width_auto_exist multiplied by length of line segment. Units in sq. feet.</t>
   </si>
   <si>
-    <t>Estimated area of existing and proposed (unconstrained) auto facilities (travel lanes) in the street segment. Does not include on-street parking. Calculated as modal_width_auto_prop multiplied by lenth of line segment. Units in sq. ft.</t>
-  </si>
-  <si>
-    <t>Estimated area of existing and proposed (constrained) bike facilities in the street segment. Includes facilites shared with other modal types such as shared bike/ped routes. Calcluated as modal_width_bike_const multiplied by length of line segment. Units in sq. ft.</t>
-  </si>
-  <si>
     <t>Estimated area of existing bike facilities in the street segment. Includes facilites shared with other modal types such as shared bike/ped routes. Calcluated as modal_width_bike_exist multiplied by length of line segment. Units in sq. ft.</t>
   </si>
   <si>
-    <t>Estimated area of existing and proposed (unconstrained) bike facilities in the street segment. Includes facilites shared with other modal types such as shared bike/ped routes. Calcluated as modal_width_bike_prop multiplied by length of line segment. Units in sq. ft.</t>
-  </si>
-  <si>
     <t>Estimated area of existing bus facilities in the street segment (bus service lanes). Does not include areas for bus stops. Bus Stop areas are included in Ped Area calculations. Calculated as modal_width_bus_exist multiplied by length of line segment. Units in sq. ft.</t>
   </si>
   <si>
-    <t>Estimated area of existing and proposed (constrained) bus facilities in the street segment (bus service lanes). Does not include areas for bus stops. Bus Stop areas are included in Ped Area calculations. Calculated as modal_width_bus_const multiplied by length of line segment. Units in sq. ft.</t>
-  </si>
-  <si>
-    <t>Estimated area of existing and proposed (constrained) bus facilities in the street segment (bus service lanes). Does not include areas for bus stops. Bus Stop areas are included in Ped Area calculations. Calculated as modal_width_bus_prop multiplied by length of line segment. Units in sq. ft.</t>
-  </si>
-  <si>
-    <t>Estimated total ROW area needed to incorporate all modal features with constrained widths. Length of line segment multiplied by modal_width_const. Units in sq. ft.</t>
-  </si>
-  <si>
     <t>remove?</t>
   </si>
   <si>
-    <t>Difference between modal_area_const and mean_row_area. Postive values represent area shortage for the constrained scenario. Units in sq. ft.</t>
-  </si>
-  <si>
-    <t>Difference between modal_area_max and mean_row_area. Postive values represent area shortage for the unconstrained scenario. Units in sq. ft.</t>
-  </si>
-  <si>
     <t>Estimated area of existing medians in the street segment.  Calculated as modal_width_medians_exist multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Binary flag generated during Modal Prioritization to indicate if a Complete Street Type shoud be re-evaluted due to ROW constraints. Features with this flag passed through all Modal Prioritization logic steps and still had modal_width_const greater than ROW width.</t>
+  </si>
+  <si>
+    <t>Lane count (constrained) multiplied by line segment length, units coverted to miles</t>
+  </si>
+  <si>
+    <t>Revised constrained lane count after Modal Prioritization logic applied</t>
+  </si>
+  <si>
+    <t>Lane count (unconstrained) multiplied by line segment length, units coverted to miles</t>
+  </si>
+  <si>
+    <t>Length of line segment in feet. Captured to preserve length of geometry prior to coverting to WGS84 (meters) for online GIS applications.</t>
+  </si>
+  <si>
+    <t>Estimated area of constrained existing and proposed auto facilities (travel lanes) in the street segment. Does not include on-street parking. Calculated as modal_width_auto_const multiplied by lenth of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of unconstrained existing and proposed auto facilities (travel lanes) in the street segment. Does not include on-street parking. Calculated as modal_width_auto_prop multiplied by lenth of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of constrained existing and proposed bike facilities in the street segment. Includes facilites shared with other modal types such as shared bike/ped routes. Calcluated as modal_width_bike_const multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of unconstrained existing and proposed bike facilities in the street segment. Includes facilites shared with other modal types such as shared bike/ped routes. Calcluated as modal_width_bike_prop multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of constrained existing and proposed bus facilities in the street segment (bus service lanes). Does not include areas for bus stops. Bus Stop areas are included in Ped Area calculations. Calculated as modal_width_bus_const multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of constrained existing and proposed bus facilities in the street segment (bus service lanes). Does not include areas for bus stops. Bus Stop areas are included in Ped Area calculations. Calculated as modal_width_bus_prop multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated total ROW area needed to incorporate all modal features with constrained widths from modal prioritization logic. Length of line segment multiplied by modal_width_const. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated total ROW area shortage for the constrained scenario. (Area Constrained - ROW area estimate) Postive values represent area shortage. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimate of total ROW area needed to incorporate all modal features with unconstrained widths. Length of line segment multiplied by modal_width_max. Units in square feet.</t>
+  </si>
+  <si>
+    <t>Estimated total ROW area shortage for the unconstrained scenario. (Area Unconstrained - ROW area estimate) Postive values represent area shortage. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Total Unconstrained Modal Width of all individual modal widths in the street cross section. Shared facilites are accounted for in summation. See analysis notebook #5 for summation logic.</t>
+  </si>
+  <si>
+    <t>Estimated area of existing on-street parking facilities in the street segment. Calculated as modal_width_parking_exist multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of constrained existing and proposed medians in the street segment.  Calculated as modal_width_medians_const multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of unconstrained existing and proposed medians in the street segment.  Calculated as modal_width_medians_prop multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of unconstrained existing and proposed on-street parking facilities in the street segment. Calculated as modal_width_parking_prop multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of constrained existing and proposed on-street parking facilities in the street segment. Calculated as modal_width_parking_const multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Analysis Step</t>
+  </si>
+  <si>
+    <t>Estimated width of existing pedestrian facilities in the street cross section</t>
+  </si>
+  <si>
+    <t>Estimated area of existing pedestrian facilities in the street segment. Calculated as modal_width_ped_exist multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of constrained existing and proposed pedestrian facilities in the street segment. Calculated as modal_width_ped_const multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated area of unconstrained existing and proposed pedestrian facilities in the street segment. Calculated as modal_width_ped_prop multiplied by length of line segment. Units in sq. ft.</t>
+  </si>
+  <si>
+    <t>Estimated total width shortage for the constrained scenario. (Modal Width Constrained - ROW width) Postive values represent shortage. Units in ft.</t>
+  </si>
+  <si>
+    <t>unsure if this was calculated</t>
+  </si>
+  <si>
+    <t>Estimated total width shortage for the unconstrained scenario. (Modal Width Unconstrained - ROW width) Postive values represent shortage. Units in ft.</t>
+  </si>
+  <si>
+    <t>Estimated width of existing medians in the street cross section.</t>
+  </si>
+  <si>
+    <t>Sea Level Rise Exposure %</t>
+  </si>
+  <si>
+    <t>Greater value of either Mean ROW Width 2020, or 1986 ROW proposed width. Used for Modal Prioritization width and calculation of hypothetical future ROW area.</t>
+  </si>
+  <si>
+    <t>Percent, by length, of line segment that intersects Sea Level Rise Exposure Area. See analysis notebook #9 for logic.</t>
+  </si>
+  <si>
+    <t>Length of line segment that intersects Sea Level Rise Exposure Area. See analysis notebook #9 for logic.</t>
+  </si>
+  <si>
+    <t>confirm if calculated or from TransCAD</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Notebook 9</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Notebook 6, manual edits by project team</t>
+  </si>
+  <si>
+    <t>Notebook 5</t>
+  </si>
+  <si>
+    <t>Notebook 8</t>
+  </si>
+  <si>
+    <t>Median lane count value for corresponding segments in HERE dataset.</t>
+  </si>
+  <si>
+    <t>Notebook 6</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +2035,13 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1976,9 +2060,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1993,18 +2074,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A18D098-8345-4BA7-B52C-9FA4ABDB1D73}" name="Table1" displayName="Table1" ref="A1:I194" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I194" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A18D098-8345-4BA7-B52C-9FA4ABDB1D73}" name="Table1" displayName="Table1" ref="A1:K194" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:K194" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="10">
       <filters>
         <filter val="Project"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:I194">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:K194">
     <sortCondition ref="B1:B194"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{09DC4FFD-ACC6-4E0B-A0CD-5C7EB50C61BA}" name="Order"/>
     <tableColumn id="2" xr3:uid="{ACF56D52-9D4C-480F-881D-A16E37BEA05C}" name="Field_Name"/>
     <tableColumn id="3" xr3:uid="{3B892D61-8581-4125-A0E4-9331CF50111E}" name="Field_Alias"/>
@@ -2012,7 +2093,9 @@
     <tableColumn id="5" xr3:uid="{0EEE211C-FF78-467F-B514-973633279E95}" name="Field_Length" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{1F920E4B-18B2-43D2-A1C9-A7CD7BDF57B0}" name="Field_Domain"/>
     <tableColumn id="7" xr3:uid="{5CF2E8BF-ACFD-4836-BB9E-151C04AA0D90}" name="Description"/>
-    <tableColumn id="8" xr3:uid="{C2CE921D-DC3E-4ABB-BD6A-293E17D11321}" name="Analysis Notebook"/>
+    <tableColumn id="11" xr3:uid="{0FAD19AE-C034-4544-96D9-628CC9BA6B6D}" name="Analysis Step" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{C2CE921D-DC3E-4ABB-BD6A-293E17D11321}" name="QC"/>
+    <tableColumn id="10" xr3:uid="{291138D5-00B2-4BDA-93F2-B05DEDDA878D}" name="Column1"/>
     <tableColumn id="9" xr3:uid="{23F7EED1-A94B-49C7-AA8B-D613D2A103B8}" name="Source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2316,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,14 +2412,14 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="75.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="75.42578125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="51.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2356,14 +2439,20 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>401</v>
+      <c r="H1" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2380,11 +2469,12 @@
         <v>4</v>
       </c>
       <c r="G2"/>
-      <c r="I2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H2"/>
+      <c r="K2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2401,11 +2491,12 @@
         <v>0</v>
       </c>
       <c r="G3"/>
-      <c r="I3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3"/>
+      <c r="K3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2422,11 +2513,12 @@
         <v>4</v>
       </c>
       <c r="G4"/>
-      <c r="I4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H4"/>
+      <c r="K4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2443,11 +2535,12 @@
         <v>50</v>
       </c>
       <c r="G5"/>
-      <c r="I5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H5"/>
+      <c r="K5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2464,11 +2557,12 @@
         <v>40</v>
       </c>
       <c r="G6"/>
-      <c r="I6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H6"/>
+      <c r="K6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2485,11 +2579,12 @@
         <v>50</v>
       </c>
       <c r="G7"/>
-      <c r="I7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H7"/>
+      <c r="K7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2506,11 +2601,12 @@
         <v>10</v>
       </c>
       <c r="G8"/>
-      <c r="I8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H8"/>
+      <c r="K8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2527,11 +2623,12 @@
         <v>4</v>
       </c>
       <c r="G9"/>
-      <c r="I9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H9"/>
+      <c r="K9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2548,11 +2645,12 @@
         <v>4</v>
       </c>
       <c r="G10"/>
-      <c r="I10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H10"/>
+      <c r="K10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2572,11 +2670,12 @@
         <v>21</v>
       </c>
       <c r="G11"/>
-      <c r="I11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H11"/>
+      <c r="K11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2593,11 +2692,12 @@
         <v>5</v>
       </c>
       <c r="G12"/>
-      <c r="I12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H12"/>
+      <c r="K12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2614,11 +2714,12 @@
         <v>5</v>
       </c>
       <c r="G13"/>
-      <c r="I13" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H13"/>
+      <c r="K13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2635,11 +2736,12 @@
         <v>40</v>
       </c>
       <c r="G14"/>
-      <c r="I14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H14"/>
+      <c r="K14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2656,11 +2758,12 @@
         <v>40</v>
       </c>
       <c r="G15"/>
-      <c r="I15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H15"/>
+      <c r="K15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2677,11 +2780,12 @@
         <v>40</v>
       </c>
       <c r="G16"/>
-      <c r="I16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H16"/>
+      <c r="K16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2698,11 +2802,12 @@
         <v>40</v>
       </c>
       <c r="G17"/>
-      <c r="I17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H17"/>
+      <c r="K17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2719,11 +2824,12 @@
         <v>4</v>
       </c>
       <c r="G18"/>
-      <c r="I18" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H18"/>
+      <c r="K18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2740,11 +2846,12 @@
         <v>10</v>
       </c>
       <c r="G19"/>
-      <c r="I19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H19"/>
+      <c r="K19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2764,11 +2871,12 @@
         <v>32</v>
       </c>
       <c r="G20"/>
-      <c r="I20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H20"/>
+      <c r="K20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2788,11 +2896,12 @@
         <v>32</v>
       </c>
       <c r="G21"/>
-      <c r="I21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H21"/>
+      <c r="K21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2812,11 +2921,12 @@
         <v>37</v>
       </c>
       <c r="G22"/>
-      <c r="I22" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H22"/>
+      <c r="K22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2836,11 +2946,12 @@
         <v>37</v>
       </c>
       <c r="G23"/>
-      <c r="I23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H23"/>
+      <c r="K23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2860,11 +2971,12 @@
         <v>42</v>
       </c>
       <c r="G24"/>
-      <c r="I24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H24"/>
+      <c r="K24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2884,11 +2996,12 @@
         <v>42</v>
       </c>
       <c r="G25"/>
-      <c r="I25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H25"/>
+      <c r="K25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2908,11 +3021,12 @@
         <v>46</v>
       </c>
       <c r="G26"/>
-      <c r="I26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H26"/>
+      <c r="K26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2932,11 +3046,12 @@
         <v>46</v>
       </c>
       <c r="G27"/>
-      <c r="I27" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H27"/>
+      <c r="K27" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2956,11 +3071,12 @@
         <v>51</v>
       </c>
       <c r="G28"/>
-      <c r="I28" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H28"/>
+      <c r="K28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2980,11 +3096,12 @@
         <v>51</v>
       </c>
       <c r="G29"/>
-      <c r="I29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H29"/>
+      <c r="K29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3004,11 +3121,12 @@
         <v>56</v>
       </c>
       <c r="G30"/>
-      <c r="I30" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H30"/>
+      <c r="K30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3028,11 +3146,12 @@
         <v>56</v>
       </c>
       <c r="G31"/>
-      <c r="I31" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+      <c r="K31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3052,11 +3171,12 @@
         <v>61</v>
       </c>
       <c r="G32"/>
-      <c r="I32" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+      <c r="K32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3076,11 +3196,12 @@
         <v>61</v>
       </c>
       <c r="G33"/>
-      <c r="I33" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+      <c r="K33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3100,11 +3221,12 @@
         <v>66</v>
       </c>
       <c r="G34"/>
-      <c r="I34" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H34"/>
+      <c r="K34" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3124,11 +3246,12 @@
         <v>66</v>
       </c>
       <c r="G35"/>
-      <c r="I35" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H35"/>
+      <c r="K35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3148,11 +3271,12 @@
         <v>71</v>
       </c>
       <c r="G36"/>
-      <c r="I36" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H36"/>
+      <c r="K36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3172,11 +3296,12 @@
         <v>71</v>
       </c>
       <c r="G37"/>
-      <c r="I37" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H37"/>
+      <c r="K37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3196,11 +3321,12 @@
         <v>76</v>
       </c>
       <c r="G38"/>
-      <c r="I38" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H38"/>
+      <c r="K38" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3220,11 +3346,12 @@
         <v>76</v>
       </c>
       <c r="G39"/>
-      <c r="I39" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H39"/>
+      <c r="K39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3244,11 +3371,12 @@
         <v>81</v>
       </c>
       <c r="G40"/>
-      <c r="I40" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H40"/>
+      <c r="K40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3268,11 +3396,12 @@
         <v>84</v>
       </c>
       <c r="G41"/>
-      <c r="I41" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H41"/>
+      <c r="K41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3292,11 +3421,12 @@
         <v>87</v>
       </c>
       <c r="G42"/>
-      <c r="I42" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H42"/>
+      <c r="K42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3316,11 +3446,12 @@
         <v>90</v>
       </c>
       <c r="G43"/>
-      <c r="I43" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H43"/>
+      <c r="K43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3337,11 +3468,12 @@
         <v>4</v>
       </c>
       <c r="G44"/>
-      <c r="I44" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H44"/>
+      <c r="K44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3358,11 +3490,12 @@
         <v>4</v>
       </c>
       <c r="G45"/>
-      <c r="I45" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H45"/>
+      <c r="K45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3379,11 +3512,12 @@
         <v>4</v>
       </c>
       <c r="G46"/>
-      <c r="I46" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H46"/>
+      <c r="K46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3400,11 +3534,12 @@
         <v>4</v>
       </c>
       <c r="G47"/>
-      <c r="I47" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H47"/>
+      <c r="K47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3421,11 +3556,12 @@
         <v>50</v>
       </c>
       <c r="G48"/>
-      <c r="I48" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H48"/>
+      <c r="K48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3442,11 +3578,12 @@
         <v>80</v>
       </c>
       <c r="G49"/>
-      <c r="I49" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H49"/>
+      <c r="K49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3463,11 +3600,12 @@
         <v>4</v>
       </c>
       <c r="G50"/>
-      <c r="I50" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H50"/>
+      <c r="K50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3484,11 +3622,12 @@
         <v>50</v>
       </c>
       <c r="G51"/>
-      <c r="I51" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H51"/>
+      <c r="K51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3505,11 +3644,12 @@
         <v>80</v>
       </c>
       <c r="G52"/>
-      <c r="I52" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H52"/>
+      <c r="K52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3526,11 +3666,12 @@
         <v>83</v>
       </c>
       <c r="G53"/>
-      <c r="I53" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H53"/>
+      <c r="K53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3547,11 +3688,12 @@
         <v>50</v>
       </c>
       <c r="G54"/>
-      <c r="I54" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H54"/>
+      <c r="K54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3568,11 +3710,12 @@
         <v>80</v>
       </c>
       <c r="G55"/>
-      <c r="I55" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H55"/>
+      <c r="K55" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3589,11 +3732,12 @@
         <v>83</v>
       </c>
       <c r="G56"/>
-      <c r="I56" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H56"/>
+      <c r="K56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3610,11 +3754,12 @@
         <v>80</v>
       </c>
       <c r="G57"/>
-      <c r="I57" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H57"/>
+      <c r="K57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3631,11 +3776,12 @@
         <v>83</v>
       </c>
       <c r="G58"/>
-      <c r="I58" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H58"/>
+      <c r="K58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3652,11 +3798,12 @@
         <v>50</v>
       </c>
       <c r="G59"/>
-      <c r="I59" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H59"/>
+      <c r="K59" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3673,11 +3820,12 @@
         <v>4</v>
       </c>
       <c r="G60"/>
-      <c r="I60" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H60"/>
+      <c r="K60" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3694,11 +3842,12 @@
         <v>4</v>
       </c>
       <c r="G61"/>
-      <c r="I61" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H61"/>
+      <c r="K61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3715,11 +3864,12 @@
         <v>4</v>
       </c>
       <c r="G62"/>
-      <c r="I62" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H62"/>
+      <c r="K62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3736,11 +3886,12 @@
         <v>4</v>
       </c>
       <c r="G63"/>
-      <c r="I63" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H63"/>
+      <c r="K63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3757,11 +3908,12 @@
         <v>4</v>
       </c>
       <c r="G64"/>
-      <c r="I64" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H64"/>
+      <c r="K64" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3778,11 +3930,12 @@
         <v>4</v>
       </c>
       <c r="G65"/>
-      <c r="I65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H65"/>
+      <c r="K65" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3799,11 +3952,12 @@
         <v>4</v>
       </c>
       <c r="G66"/>
-      <c r="I66" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H66"/>
+      <c r="K66" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3820,11 +3974,12 @@
         <v>4</v>
       </c>
       <c r="G67"/>
-      <c r="I67" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H67"/>
+      <c r="K67" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3841,11 +3996,12 @@
         <v>4</v>
       </c>
       <c r="G68"/>
-      <c r="I68" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H68"/>
+      <c r="K68" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3862,11 +4018,12 @@
         <v>4</v>
       </c>
       <c r="G69"/>
-      <c r="I69" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H69"/>
+      <c r="K69" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3883,11 +4040,12 @@
         <v>4</v>
       </c>
       <c r="G70"/>
-      <c r="I70" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H70"/>
+      <c r="K70" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3904,11 +4062,12 @@
         <v>4</v>
       </c>
       <c r="G71"/>
-      <c r="I71" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H71"/>
+      <c r="K71" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3925,11 +4084,12 @@
         <v>4</v>
       </c>
       <c r="G72"/>
-      <c r="I72" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H72"/>
+      <c r="K72" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3946,11 +4106,12 @@
         <v>8</v>
       </c>
       <c r="G73"/>
-      <c r="I73" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H73"/>
+      <c r="K73" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>145</v>
       </c>
@@ -3967,13 +4128,16 @@
         <v>2</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="I74" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K74" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>114</v>
       </c>
@@ -3990,13 +4154,16 @@
         <v>2</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="I75" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="K75" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>115</v>
       </c>
@@ -4013,13 +4180,16 @@
         <v>30</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I76" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="K76" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4036,11 +4206,12 @@
         <v>255</v>
       </c>
       <c r="G77"/>
-      <c r="I77" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H77"/>
+      <c r="K77" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4057,11 +4228,12 @@
         <v>255</v>
       </c>
       <c r="G78"/>
-      <c r="I78" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H78"/>
+      <c r="K78" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4078,11 +4250,12 @@
         <v>4</v>
       </c>
       <c r="G79"/>
-      <c r="I79" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H79"/>
+      <c r="K79" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4099,11 +4272,12 @@
         <v>8</v>
       </c>
       <c r="G80"/>
-      <c r="I80" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H80"/>
+      <c r="K80" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4120,11 +4294,12 @@
         <v>8</v>
       </c>
       <c r="G81"/>
-      <c r="I81" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H81"/>
+      <c r="K81" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4141,11 +4316,12 @@
         <v>4</v>
       </c>
       <c r="G82"/>
-      <c r="I82" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H82"/>
+      <c r="K82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4162,8 +4338,9 @@
         <v>4</v>
       </c>
       <c r="G83"/>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4180,11 +4357,12 @@
         <v>4</v>
       </c>
       <c r="G84"/>
-      <c r="I84" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H84"/>
+      <c r="K84" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4201,11 +4379,12 @@
         <v>50</v>
       </c>
       <c r="G85"/>
-      <c r="I85" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H85"/>
+      <c r="K85" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4222,11 +4401,12 @@
         <v>4</v>
       </c>
       <c r="G86"/>
-      <c r="I86" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H86"/>
+      <c r="K86" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4243,11 +4423,12 @@
         <v>4</v>
       </c>
       <c r="G87"/>
-      <c r="I87" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H87"/>
+      <c r="K87" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4264,11 +4445,12 @@
         <v>2</v>
       </c>
       <c r="G88"/>
-      <c r="I88" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H88"/>
+      <c r="K88" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4285,11 +4467,12 @@
         <v>2</v>
       </c>
       <c r="G89"/>
-      <c r="I89" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H89"/>
+      <c r="K89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4306,11 +4489,12 @@
         <v>2</v>
       </c>
       <c r="G90"/>
-      <c r="I90" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H90"/>
+      <c r="K90" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4327,11 +4511,12 @@
         <v>2</v>
       </c>
       <c r="G91"/>
-      <c r="I91" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H91"/>
+      <c r="K91" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4348,11 +4533,12 @@
         <v>2</v>
       </c>
       <c r="G92"/>
-      <c r="I92" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H92"/>
+      <c r="K92" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4369,11 +4555,12 @@
         <v>8</v>
       </c>
       <c r="G93"/>
-      <c r="I93" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H93"/>
+      <c r="K93" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4390,11 +4577,12 @@
         <v>2</v>
       </c>
       <c r="G94"/>
-      <c r="I94" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H94"/>
+      <c r="K94" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4411,11 +4599,12 @@
         <v>2</v>
       </c>
       <c r="G95"/>
-      <c r="I95" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H95"/>
+      <c r="K95" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4432,11 +4621,12 @@
         <v>2</v>
       </c>
       <c r="G96"/>
-      <c r="I96" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H96"/>
+      <c r="K96" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4453,11 +4643,12 @@
         <v>2</v>
       </c>
       <c r="G97"/>
-      <c r="I97" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H97"/>
+      <c r="K97" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>116</v>
       </c>
@@ -4474,13 +4665,16 @@
         <v>30</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I98" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="K98" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>147</v>
       </c>
@@ -4497,13 +4691,16 @@
         <v>2</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="I99" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K99" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>189</v>
       </c>
@@ -4520,13 +4717,16 @@
         <v>8</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="I100" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K100" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>190</v>
       </c>
@@ -4543,13 +4743,16 @@
         <v>4</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="I101" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K101" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>135</v>
       </c>
@@ -4566,13 +4769,13 @@
         <v>4</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="I102" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="K102" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>151</v>
       </c>
@@ -4589,13 +4792,19 @@
         <v>2</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="I103" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="K103" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>158</v>
       </c>
@@ -4612,13 +4821,16 @@
         <v>2</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="I104" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K104" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>156</v>
       </c>
@@ -4634,11 +4846,14 @@
       <c r="E105" s="2">
         <v>255</v>
       </c>
-      <c r="I105" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H105" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K105" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>152</v>
       </c>
@@ -4655,13 +4870,16 @@
         <v>2</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="I106" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K106" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>146</v>
       </c>
@@ -4678,13 +4896,16 @@
         <v>2</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="I107" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K107" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>153</v>
       </c>
@@ -4701,13 +4922,19 @@
         <v>4</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="I108" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="K108" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>160</v>
       </c>
@@ -4726,11 +4953,14 @@
       <c r="G109" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="I109" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K109" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4747,11 +4977,12 @@
         <v>50</v>
       </c>
       <c r="G110"/>
-      <c r="I110" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H110"/>
+      <c r="K110" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>159</v>
       </c>
@@ -4768,13 +4999,16 @@
         <v>4</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="I111" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K111" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>154</v>
       </c>
@@ -4791,13 +5025,16 @@
         <v>4</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="I112" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K112" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>155</v>
       </c>
@@ -4814,13 +5051,16 @@
         <v>4</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="I113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K113" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>109</v>
       </c>
@@ -4837,13 +5077,19 @@
         <v>2</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="I114" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="K114" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4860,13 +5106,16 @@
         <v>8</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="I115" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="K115" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>120</v>
       </c>
@@ -4883,13 +5132,16 @@
         <v>4</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I116" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="K116" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>121</v>
       </c>
@@ -4906,13 +5158,13 @@
         <v>4</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="I117" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="K117" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -4929,13 +5181,16 @@
         <v>8</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="I118" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="K118" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4952,13 +5207,16 @@
         <v>4</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="I119" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="K119" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>72</v>
       </c>
@@ -4975,13 +5233,13 @@
         <v>8</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="I120" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="K120" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>74</v>
       </c>
@@ -4998,13 +5256,13 @@
         <v>8</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I121" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="K121" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5021,13 +5279,16 @@
         <v>4</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="I122" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K122" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>157</v>
       </c>
@@ -5043,11 +5304,17 @@
       <c r="E123" s="2">
         <v>8</v>
       </c>
-      <c r="I123" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G123" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K123" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>111</v>
       </c>
@@ -5063,11 +5330,14 @@
       <c r="E124" s="2">
         <v>50</v>
       </c>
-      <c r="I124" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H124" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K124" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>112</v>
       </c>
@@ -5083,11 +5353,14 @@
       <c r="E125" s="2">
         <v>50</v>
       </c>
-      <c r="I125" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H125" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K125" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>73</v>
       </c>
@@ -5104,13 +5377,13 @@
         <v>8</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="I126" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K126" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5127,11 +5400,12 @@
         <v>12</v>
       </c>
       <c r="G127"/>
-      <c r="I127" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H127"/>
+      <c r="K127" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5148,11 +5422,12 @@
         <v>4</v>
       </c>
       <c r="G128"/>
-      <c r="I128" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H128"/>
+      <c r="K128" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5169,11 +5444,12 @@
         <v>2</v>
       </c>
       <c r="G129"/>
-      <c r="I129" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H129"/>
+      <c r="K129" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5190,11 +5466,12 @@
         <v>45</v>
       </c>
       <c r="G130"/>
-      <c r="I130" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H130"/>
+      <c r="K130" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5211,11 +5488,12 @@
         <v>15</v>
       </c>
       <c r="G131"/>
-      <c r="I131" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H131"/>
+      <c r="K131" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5232,11 +5510,12 @@
         <v>2</v>
       </c>
       <c r="G132"/>
-      <c r="I132" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H132"/>
+      <c r="K132" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5253,11 +5532,12 @@
         <v>2</v>
       </c>
       <c r="G133"/>
-      <c r="I133" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H133"/>
+      <c r="K133" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5274,11 +5554,12 @@
         <v>2</v>
       </c>
       <c r="G134"/>
-      <c r="I134" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H134"/>
+      <c r="K134" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5295,11 +5576,12 @@
         <v>8</v>
       </c>
       <c r="G135"/>
-      <c r="I135" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H135"/>
+      <c r="K135" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5316,11 +5598,12 @@
         <v>8</v>
       </c>
       <c r="G136"/>
-      <c r="I136" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H136"/>
+      <c r="K136" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>169</v>
       </c>
@@ -5337,13 +5620,16 @@
         <v>4</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="I137" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K137" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>167</v>
       </c>
@@ -5360,13 +5646,16 @@
         <v>4</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="I138" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K138" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>168</v>
       </c>
@@ -5385,11 +5674,14 @@
       <c r="G139" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="I139" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H139" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K139" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>166</v>
       </c>
@@ -5408,11 +5700,14 @@
       <c r="G140" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="I140" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H140" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K140" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>164</v>
       </c>
@@ -5429,13 +5724,16 @@
         <v>4</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="I141" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K141" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>165</v>
       </c>
@@ -5452,13 +5750,16 @@
         <v>4</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="I142" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K142" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>172</v>
       </c>
@@ -5475,13 +5776,16 @@
         <v>4</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="I143" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K143" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>170</v>
       </c>
@@ -5498,13 +5802,16 @@
         <v>4</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="I144" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K144" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>171</v>
       </c>
@@ -5521,13 +5828,16 @@
         <v>4</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="I145" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K145" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>143</v>
       </c>
@@ -5544,13 +5854,16 @@
         <v>4</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="I146" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K146" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>187</v>
       </c>
@@ -5567,13 +5880,16 @@
         <v>4</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="I147" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K147" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>124</v>
       </c>
@@ -5590,16 +5906,19 @@
         <v>4</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H148" t="s">
-        <v>455</v>
+        <v>426</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="I148" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="K148" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>144</v>
       </c>
@@ -5616,16 +5935,19 @@
         <v>4</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H149" t="s">
-        <v>455</v>
+        <v>426</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="I149" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="K149" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>123</v>
       </c>
@@ -5642,13 +5964,16 @@
         <v>4</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="I150" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K150" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>186</v>
       </c>
@@ -5665,13 +5990,16 @@
         <v>4</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="I151" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K151" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>179</v>
       </c>
@@ -5687,11 +6015,17 @@
       <c r="E152" s="2">
         <v>4</v>
       </c>
-      <c r="I152" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G152" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K152" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>177</v>
       </c>
@@ -5708,13 +6042,16 @@
         <v>4</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="I153" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K153" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>178</v>
       </c>
@@ -5730,11 +6067,17 @@
       <c r="E154" s="2">
         <v>4</v>
       </c>
-      <c r="I154" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G154" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K154" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>175</v>
       </c>
@@ -5750,11 +6093,17 @@
       <c r="E155" s="2">
         <v>4</v>
       </c>
-      <c r="I155" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G155" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K155" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>173</v>
       </c>
@@ -5770,11 +6119,17 @@
       <c r="E156" s="2">
         <v>4</v>
       </c>
-      <c r="I156" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G156" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K156" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>174</v>
       </c>
@@ -5790,11 +6145,17 @@
       <c r="E157" s="2">
         <v>4</v>
       </c>
-      <c r="I157" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G157" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K157" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>163</v>
       </c>
@@ -5810,11 +6171,17 @@
       <c r="E158" s="2">
         <v>4</v>
       </c>
-      <c r="I158" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G158" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K158" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>161</v>
       </c>
@@ -5830,11 +6197,17 @@
       <c r="E159" s="2">
         <v>4</v>
       </c>
-      <c r="I159" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G159" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K159" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>162</v>
       </c>
@@ -5850,11 +6223,17 @@
       <c r="E160" s="2">
         <v>4</v>
       </c>
-      <c r="I160" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G160" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K160" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>138</v>
       </c>
@@ -5871,13 +6250,16 @@
         <v>2</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="I161" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K161" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>100</v>
       </c>
@@ -5894,13 +6276,16 @@
         <v>2</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="I162" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K162" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>101</v>
       </c>
@@ -5917,13 +6302,16 @@
         <v>2</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="I163" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K163" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>148</v>
       </c>
@@ -5940,13 +6328,16 @@
         <v>255</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="I164" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K164" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>137</v>
       </c>
@@ -5963,13 +6354,16 @@
         <v>2</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="I165" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K165" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>98</v>
       </c>
@@ -5986,13 +6380,16 @@
         <v>2</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="I166" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K166" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>99</v>
       </c>
@@ -6009,13 +6406,16 @@
         <v>2</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="I167" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K167" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>139</v>
       </c>
@@ -6032,13 +6432,16 @@
         <v>2</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="I168" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K168" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>102</v>
       </c>
@@ -6055,13 +6458,16 @@
         <v>2</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="I169" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K169" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>103</v>
       </c>
@@ -6078,13 +6484,16 @@
         <v>2</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="I170" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K170" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>142</v>
       </c>
@@ -6101,13 +6510,16 @@
         <v>2</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="I171" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K171" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>182</v>
       </c>
@@ -6123,11 +6535,14 @@
       <c r="E172" s="2">
         <v>255</v>
       </c>
-      <c r="I172" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H172" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K172" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>185</v>
       </c>
@@ -6143,11 +6558,17 @@
       <c r="E173" s="2">
         <v>2</v>
       </c>
-      <c r="I173" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G173" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K173" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>180</v>
       </c>
@@ -6163,11 +6584,17 @@
       <c r="E174" s="2">
         <v>2</v>
       </c>
+      <c r="H174" s="5" t="s">
+        <v>481</v>
+      </c>
       <c r="I174" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="K174" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>107</v>
       </c>
@@ -6184,13 +6611,16 @@
         <v>2</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="I175" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K175" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>181</v>
       </c>
@@ -6206,11 +6636,14 @@
       <c r="E176" s="2">
         <v>255</v>
       </c>
-      <c r="I176" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H176" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K176" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>184</v>
       </c>
@@ -6226,11 +6659,17 @@
       <c r="E177" s="2">
         <v>2</v>
       </c>
-      <c r="I177" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G177" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K177" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>106</v>
       </c>
@@ -6247,16 +6686,19 @@
         <v>2</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="H178" t="s">
-        <v>455</v>
+        <v>403</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="I178" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="K178" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>141</v>
       </c>
@@ -6273,13 +6715,16 @@
         <v>2</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="I179" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K179" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>176</v>
       </c>
@@ -6295,11 +6740,17 @@
       <c r="E180" s="2">
         <v>2</v>
       </c>
-      <c r="I180" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G180" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K180" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>183</v>
       </c>
@@ -6315,11 +6766,17 @@
       <c r="E181" s="2">
         <v>2</v>
       </c>
-      <c r="I181" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G181" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K181" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>140</v>
       </c>
@@ -6336,13 +6793,16 @@
         <v>2</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="I182" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K182" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>104</v>
       </c>
@@ -6359,13 +6819,16 @@
         <v>2</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="I183" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K183" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>105</v>
       </c>
@@ -6382,13 +6845,16 @@
         <v>2</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="I184" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K184" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>136</v>
       </c>
@@ -6405,13 +6871,16 @@
         <v>2</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="I185" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K185" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>96</v>
       </c>
@@ -6428,13 +6897,16 @@
         <v>2</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="I186" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K186" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>149</v>
       </c>
@@ -6451,13 +6923,16 @@
         <v>2</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="I187" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K187" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>97</v>
       </c>
@@ -6474,13 +6949,16 @@
         <v>2</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I188" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K188" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>113</v>
       </c>
@@ -6496,11 +6974,17 @@
       <c r="E189" s="2">
         <v>255</v>
       </c>
+      <c r="H189" s="5" t="s">
+        <v>481</v>
+      </c>
       <c r="I189" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="K189" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>150</v>
       </c>
@@ -6517,13 +7001,16 @@
         <v>255</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="I190" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="K190" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>188</v>
       </c>
@@ -6539,11 +7026,17 @@
       <c r="E191" s="2">
         <v>4</v>
       </c>
-      <c r="I191" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G191" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K191" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6559,11 +7052,17 @@
       <c r="E192" s="2">
         <v>8</v>
       </c>
-      <c r="I192" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G192" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K192" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6571,7 +7070,7 @@
         <v>382</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>471</v>
       </c>
       <c r="D193" t="s">
         <v>241</v>
@@ -6579,11 +7078,17 @@
       <c r="E193" s="2">
         <v>4</v>
       </c>
-      <c r="I193" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G193" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K193" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>110</v>
       </c>
@@ -6599,8 +7104,14 @@
       <c r="E194" s="2">
         <v>8</v>
       </c>
+      <c r="H194" s="5" t="s">
+        <v>481</v>
+      </c>
       <c r="I194" t="s">
-        <v>389</v>
+        <v>475</v>
+      </c>
+      <c r="K194" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering-my.sharepoint.com/personal/ray_mangan_jacobs_com/Documents/Documents/GitHub/DTS-Complete-Streets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="391" documentId="13_ncr:40009_{3BE2A500-98DD-4E6F-8337-3C11BB9DF194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5192FE5C-5194-478A-8F90-22F178CFC5FD}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="13_ncr:40009_{3BE2A500-98DD-4E6F-8337-3C11BB9DF194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{592DB322-7D9B-4600-93B2-1F190189A9B5}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="840" windowWidth="31950" windowHeight="18045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11010" yWindow="3795" windowWidth="26820" windowHeight="16245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$K$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$L$194</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="494">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1478,6 +1478,33 @@
   </si>
   <si>
     <t>Notebook 6</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Ped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto </t>
+  </si>
+  <si>
+    <t>Environmental</t>
   </si>
 </sst>
 </file>
@@ -2074,21 +2101,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A18D098-8345-4BA7-B52C-9FA4ABDB1D73}" name="Table1" displayName="Table1" ref="A1:K194" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:K194" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A18D098-8345-4BA7-B52C-9FA4ABDB1D73}" name="Table1" displayName="Table1" ref="A1:L194" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:L194" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="11">
       <filters>
-        <filter val="Project"/>
+        <filter val="Ped Plan (Draft)"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:K194">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:L194">
     <sortCondition ref="B1:B194"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{09DC4FFD-ACC6-4E0B-A0CD-5C7EB50C61BA}" name="Order"/>
     <tableColumn id="2" xr3:uid="{ACF56D52-9D4C-480F-881D-A16E37BEA05C}" name="Field_Name"/>
     <tableColumn id="3" xr3:uid="{3B892D61-8581-4125-A0E4-9331CF50111E}" name="Field_Alias"/>
+    <tableColumn id="12" xr3:uid="{641E6F30-E7BC-4921-AFE3-4F0AE9227CFD}" name="Category"/>
     <tableColumn id="4" xr3:uid="{06B89F55-D91C-4605-A67A-39BFBAD54684}" name="Field_Type"/>
     <tableColumn id="5" xr3:uid="{0EEE211C-FF78-467F-B514-973633279E95}" name="Field_Length" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{1F920E4B-18B2-43D2-A1C9-A7CD7BDF57B0}" name="Field_Domain"/>
@@ -2399,25 +2427,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="8" width="75.42578125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="51.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="75.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>395</v>
       </c>
@@ -2428,31 +2459,34 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2462,19 +2496,19 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2"/>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
       <c r="H2"/>
-      <c r="K2" t="s">
+      <c r="I2"/>
+      <c r="L2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2484,19 +2518,19 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3"/>
       <c r="H3"/>
-      <c r="K3" t="s">
+      <c r="I3"/>
+      <c r="L3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2506,19 +2540,19 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4"/>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
       <c r="H4"/>
-      <c r="K4" t="s">
+      <c r="I4"/>
+      <c r="L4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2528,19 +2562,19 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>50</v>
       </c>
-      <c r="G5"/>
       <c r="H5"/>
-      <c r="K5" t="s">
+      <c r="I5"/>
+      <c r="L5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2550,19 +2584,19 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>40</v>
       </c>
-      <c r="G6"/>
       <c r="H6"/>
-      <c r="K6" t="s">
+      <c r="I6"/>
+      <c r="L6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2572,19 +2606,19 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>50</v>
       </c>
-      <c r="G7"/>
       <c r="H7"/>
-      <c r="K7" t="s">
+      <c r="I7"/>
+      <c r="L7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2594,19 +2628,19 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>10</v>
       </c>
-      <c r="G8"/>
       <c r="H8"/>
-      <c r="K8" t="s">
+      <c r="I8"/>
+      <c r="L8" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2616,19 +2650,19 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9"/>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
       <c r="H9"/>
-      <c r="K9" t="s">
+      <c r="I9"/>
+      <c r="L9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2638,19 +2672,19 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="G10"/>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
       <c r="H10"/>
-      <c r="K10" t="s">
+      <c r="I10"/>
+      <c r="L10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2660,22 +2694,22 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="G11"/>
       <c r="H11"/>
-      <c r="K11" t="s">
+      <c r="I11"/>
+      <c r="L11" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2685,19 +2719,19 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12"/>
       <c r="H12"/>
-      <c r="K12" t="s">
+      <c r="I12"/>
+      <c r="L12" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2707,19 +2741,19 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13"/>
       <c r="H13"/>
-      <c r="K13" t="s">
+      <c r="I13"/>
+      <c r="L13" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2729,19 +2763,19 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>40</v>
       </c>
-      <c r="G14"/>
       <c r="H14"/>
-      <c r="K14" t="s">
+      <c r="I14"/>
+      <c r="L14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2751,19 +2785,19 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>40</v>
       </c>
-      <c r="G15"/>
       <c r="H15"/>
-      <c r="K15" t="s">
+      <c r="I15"/>
+      <c r="L15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2773,19 +2807,19 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>40</v>
       </c>
-      <c r="G16"/>
       <c r="H16"/>
-      <c r="K16" t="s">
+      <c r="I16"/>
+      <c r="L16" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2795,19 +2829,19 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>40</v>
       </c>
-      <c r="G17"/>
       <c r="H17"/>
-      <c r="K17" t="s">
+      <c r="I17"/>
+      <c r="L17" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2817,19 +2851,19 @@
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="2">
-        <v>4</v>
-      </c>
-      <c r="G18"/>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
       <c r="H18"/>
-      <c r="K18" t="s">
+      <c r="I18"/>
+      <c r="L18" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2839,19 +2873,19 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>10</v>
       </c>
-      <c r="G19"/>
       <c r="H19"/>
-      <c r="K19" t="s">
+      <c r="I19"/>
+      <c r="L19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2861,22 +2895,22 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="G20"/>
       <c r="H20"/>
-      <c r="K20" t="s">
+      <c r="I20"/>
+      <c r="L20" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2886,22 +2920,22 @@
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
         <v>32</v>
       </c>
-      <c r="G21"/>
       <c r="H21"/>
-      <c r="K21" t="s">
+      <c r="I21"/>
+      <c r="L21" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2911,22 +2945,22 @@
       <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
         <v>37</v>
       </c>
-      <c r="G22"/>
       <c r="H22"/>
-      <c r="K22" t="s">
+      <c r="I22"/>
+      <c r="L22" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2936,22 +2970,22 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
         <v>37</v>
       </c>
-      <c r="G23"/>
       <c r="H23"/>
-      <c r="K23" t="s">
+      <c r="I23"/>
+      <c r="L23" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2961,22 +2995,22 @@
       <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="2">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
         <v>42</v>
       </c>
-      <c r="G24"/>
       <c r="H24"/>
-      <c r="K24" t="s">
+      <c r="I24"/>
+      <c r="L24" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2986,22 +3020,22 @@
       <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="2">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
         <v>42</v>
       </c>
-      <c r="G25"/>
       <c r="H25"/>
-      <c r="K25" t="s">
+      <c r="I25"/>
+      <c r="L25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3011,22 +3045,22 @@
       <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="2">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
         <v>46</v>
       </c>
-      <c r="G26"/>
       <c r="H26"/>
-      <c r="K26" t="s">
+      <c r="I26"/>
+      <c r="L26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3036,22 +3070,22 @@
       <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
         <v>46</v>
       </c>
-      <c r="G27"/>
       <c r="H27"/>
-      <c r="K27" t="s">
+      <c r="I27"/>
+      <c r="L27" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3061,22 +3095,22 @@
       <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
         <v>51</v>
       </c>
-      <c r="G28"/>
       <c r="H28"/>
-      <c r="K28" t="s">
+      <c r="I28"/>
+      <c r="L28" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3086,22 +3120,22 @@
       <c r="C29" t="s">
         <v>53</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
         <v>51</v>
       </c>
-      <c r="G29"/>
       <c r="H29"/>
-      <c r="K29" t="s">
+      <c r="I29"/>
+      <c r="L29" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3111,22 +3145,22 @@
       <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
         <v>56</v>
       </c>
-      <c r="G30"/>
       <c r="H30"/>
-      <c r="K30" t="s">
+      <c r="I30"/>
+      <c r="L30" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3136,22 +3170,22 @@
       <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
         <v>56</v>
       </c>
-      <c r="G31"/>
       <c r="H31"/>
-      <c r="K31" t="s">
+      <c r="I31"/>
+      <c r="L31" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3161,22 +3195,22 @@
       <c r="C32" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="2">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
         <v>61</v>
       </c>
-      <c r="G32"/>
       <c r="H32"/>
-      <c r="K32" t="s">
+      <c r="I32"/>
+      <c r="L32" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3186,22 +3220,22 @@
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="2">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
         <v>61</v>
       </c>
-      <c r="G33"/>
       <c r="H33"/>
-      <c r="K33" t="s">
+      <c r="I33"/>
+      <c r="L33" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3211,22 +3245,22 @@
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="2">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
         <v>66</v>
       </c>
-      <c r="G34"/>
       <c r="H34"/>
-      <c r="K34" t="s">
+      <c r="I34"/>
+      <c r="L34" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3236,22 +3270,22 @@
       <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
         <v>66</v>
       </c>
-      <c r="G35"/>
       <c r="H35"/>
-      <c r="K35" t="s">
+      <c r="I35"/>
+      <c r="L35" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3261,22 +3295,22 @@
       <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="2">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
         <v>71</v>
       </c>
-      <c r="G36"/>
       <c r="H36"/>
-      <c r="K36" t="s">
+      <c r="I36"/>
+      <c r="L36" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3286,22 +3320,22 @@
       <c r="C37" t="s">
         <v>73</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="2">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
         <v>71</v>
       </c>
-      <c r="G37"/>
       <c r="H37"/>
-      <c r="K37" t="s">
+      <c r="I37"/>
+      <c r="L37" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3311,22 +3345,22 @@
       <c r="C38" t="s">
         <v>75</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="2">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
         <v>76</v>
       </c>
-      <c r="G38"/>
       <c r="H38"/>
-      <c r="K38" t="s">
+      <c r="I38"/>
+      <c r="L38" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3336,22 +3370,22 @@
       <c r="C39" t="s">
         <v>78</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="2">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
         <v>76</v>
       </c>
-      <c r="G39"/>
       <c r="H39"/>
-      <c r="K39" t="s">
+      <c r="I39"/>
+      <c r="L39" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3361,22 +3395,22 @@
       <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2">
-        <v>4</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
         <v>81</v>
       </c>
-      <c r="G40"/>
       <c r="H40"/>
-      <c r="K40" t="s">
+      <c r="I40"/>
+      <c r="L40" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3386,22 +3420,22 @@
       <c r="C41" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="2">
-        <v>4</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
         <v>84</v>
       </c>
-      <c r="G41"/>
       <c r="H41"/>
-      <c r="K41" t="s">
+      <c r="I41"/>
+      <c r="L41" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3411,22 +3445,22 @@
       <c r="C42" t="s">
         <v>86</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="2">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
         <v>87</v>
       </c>
-      <c r="G42"/>
       <c r="H42"/>
-      <c r="K42" t="s">
+      <c r="I42"/>
+      <c r="L42" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3436,22 +3470,22 @@
       <c r="C43" t="s">
         <v>89</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="2">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
         <v>90</v>
       </c>
-      <c r="G43"/>
       <c r="H43"/>
-      <c r="K43" t="s">
+      <c r="I43"/>
+      <c r="L43" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3461,19 +3495,19 @@
       <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="2">
-        <v>4</v>
-      </c>
-      <c r="G44"/>
+      <c r="F44" s="2">
+        <v>4</v>
+      </c>
       <c r="H44"/>
-      <c r="K44" t="s">
+      <c r="I44"/>
+      <c r="L44" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3483,19 +3517,19 @@
       <c r="C45" t="s">
         <v>94</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="2">
-        <v>4</v>
-      </c>
-      <c r="G45"/>
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
       <c r="H45"/>
-      <c r="K45" t="s">
+      <c r="I45"/>
+      <c r="L45" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3505,19 +3539,19 @@
       <c r="C46" t="s">
         <v>96</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="2">
-        <v>4</v>
-      </c>
-      <c r="G46"/>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
       <c r="H46"/>
-      <c r="K46" t="s">
+      <c r="I46"/>
+      <c r="L46" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3528,18 +3562,21 @@
         <v>98</v>
       </c>
       <c r="D47" t="s">
+        <v>491</v>
+      </c>
+      <c r="E47" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="2">
-        <v>4</v>
-      </c>
-      <c r="G47"/>
+      <c r="F47" s="2">
+        <v>4</v>
+      </c>
       <c r="H47"/>
-      <c r="K47" t="s">
+      <c r="I47"/>
+      <c r="L47" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3550,18 +3587,21 @@
         <v>100</v>
       </c>
       <c r="D48" t="s">
+        <v>491</v>
+      </c>
+      <c r="E48" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>50</v>
       </c>
-      <c r="G48"/>
       <c r="H48"/>
-      <c r="K48" t="s">
+      <c r="I48"/>
+      <c r="L48" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3572,18 +3612,21 @@
         <v>102</v>
       </c>
       <c r="D49" t="s">
+        <v>491</v>
+      </c>
+      <c r="E49" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <v>80</v>
       </c>
-      <c r="G49"/>
       <c r="H49"/>
-      <c r="K49" t="s">
+      <c r="I49"/>
+      <c r="L49" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3594,18 +3637,21 @@
         <v>104</v>
       </c>
       <c r="D50" t="s">
+        <v>491</v>
+      </c>
+      <c r="E50" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="2">
-        <v>4</v>
-      </c>
-      <c r="G50"/>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
       <c r="H50"/>
-      <c r="K50" t="s">
+      <c r="I50"/>
+      <c r="L50" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3616,18 +3662,21 @@
         <v>106</v>
       </c>
       <c r="D51" t="s">
+        <v>491</v>
+      </c>
+      <c r="E51" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>50</v>
       </c>
-      <c r="G51"/>
       <c r="H51"/>
-      <c r="K51" t="s">
+      <c r="I51"/>
+      <c r="L51" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3638,18 +3687,21 @@
         <v>108</v>
       </c>
       <c r="D52" t="s">
+        <v>486</v>
+      </c>
+      <c r="E52" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>80</v>
       </c>
-      <c r="G52"/>
       <c r="H52"/>
-      <c r="K52" t="s">
+      <c r="I52"/>
+      <c r="L52" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3660,18 +3712,21 @@
         <v>110</v>
       </c>
       <c r="D53" t="s">
+        <v>486</v>
+      </c>
+      <c r="E53" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>83</v>
       </c>
-      <c r="G53"/>
       <c r="H53"/>
-      <c r="K53" t="s">
+      <c r="I53"/>
+      <c r="L53" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3682,18 +3737,21 @@
         <v>112</v>
       </c>
       <c r="D54" t="s">
+        <v>486</v>
+      </c>
+      <c r="E54" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <v>50</v>
       </c>
-      <c r="G54"/>
       <c r="H54"/>
-      <c r="K54" t="s">
+      <c r="I54"/>
+      <c r="L54" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3704,18 +3762,21 @@
         <v>114</v>
       </c>
       <c r="D55" t="s">
+        <v>486</v>
+      </c>
+      <c r="E55" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>80</v>
       </c>
-      <c r="G55"/>
       <c r="H55"/>
-      <c r="K55" t="s">
+      <c r="I55"/>
+      <c r="L55" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3726,18 +3787,21 @@
         <v>116</v>
       </c>
       <c r="D56" t="s">
+        <v>486</v>
+      </c>
+      <c r="E56" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>83</v>
       </c>
-      <c r="G56"/>
       <c r="H56"/>
-      <c r="K56" t="s">
+      <c r="I56"/>
+      <c r="L56" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3748,18 +3812,21 @@
         <v>118</v>
       </c>
       <c r="D57" t="s">
+        <v>486</v>
+      </c>
+      <c r="E57" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>80</v>
       </c>
-      <c r="G57"/>
       <c r="H57"/>
-      <c r="K57" t="s">
+      <c r="I57"/>
+      <c r="L57" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3770,18 +3837,21 @@
         <v>120</v>
       </c>
       <c r="D58" t="s">
+        <v>486</v>
+      </c>
+      <c r="E58" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>83</v>
       </c>
-      <c r="G58"/>
       <c r="H58"/>
-      <c r="K58" t="s">
+      <c r="I58"/>
+      <c r="L58" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3792,18 +3862,21 @@
         <v>122</v>
       </c>
       <c r="D59" t="s">
+        <v>486</v>
+      </c>
+      <c r="E59" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>50</v>
       </c>
-      <c r="G59"/>
       <c r="H59"/>
-      <c r="K59" t="s">
+      <c r="I59"/>
+      <c r="L59" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3813,19 +3886,19 @@
       <c r="C60" t="s">
         <v>124</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="2">
-        <v>4</v>
-      </c>
-      <c r="G60"/>
+      <c r="F60" s="2">
+        <v>4</v>
+      </c>
       <c r="H60"/>
-      <c r="K60" t="s">
+      <c r="I60"/>
+      <c r="L60" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3835,19 +3908,19 @@
       <c r="C61" t="s">
         <v>126</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="2">
-        <v>4</v>
-      </c>
-      <c r="G61"/>
+      <c r="F61" s="2">
+        <v>4</v>
+      </c>
       <c r="H61"/>
-      <c r="K61" t="s">
+      <c r="I61"/>
+      <c r="L61" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3857,19 +3930,19 @@
       <c r="C62" t="s">
         <v>128</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="2">
-        <v>4</v>
-      </c>
-      <c r="G62"/>
+      <c r="F62" s="2">
+        <v>4</v>
+      </c>
       <c r="H62"/>
-      <c r="K62" t="s">
+      <c r="I62"/>
+      <c r="L62" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3879,19 +3952,19 @@
       <c r="C63" t="s">
         <v>130</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="2">
-        <v>4</v>
-      </c>
-      <c r="G63"/>
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
       <c r="H63"/>
-      <c r="K63" t="s">
+      <c r="I63"/>
+      <c r="L63" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3901,19 +3974,19 @@
       <c r="C64" t="s">
         <v>132</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="2">
-        <v>4</v>
-      </c>
-      <c r="G64"/>
+      <c r="F64" s="2">
+        <v>4</v>
+      </c>
       <c r="H64"/>
-      <c r="K64" t="s">
+      <c r="I64"/>
+      <c r="L64" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3923,19 +3996,19 @@
       <c r="C65" t="s">
         <v>134</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="2">
-        <v>4</v>
-      </c>
-      <c r="G65"/>
+      <c r="F65" s="2">
+        <v>4</v>
+      </c>
       <c r="H65"/>
-      <c r="K65" t="s">
+      <c r="I65"/>
+      <c r="L65" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3945,19 +4018,19 @@
       <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="2">
-        <v>4</v>
-      </c>
-      <c r="G66"/>
+      <c r="F66" s="2">
+        <v>4</v>
+      </c>
       <c r="H66"/>
-      <c r="K66" t="s">
+      <c r="I66"/>
+      <c r="L66" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3967,19 +4040,19 @@
       <c r="C67" t="s">
         <v>138</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="2">
-        <v>4</v>
-      </c>
-      <c r="G67"/>
+      <c r="F67" s="2">
+        <v>4</v>
+      </c>
       <c r="H67"/>
-      <c r="K67" t="s">
+      <c r="I67"/>
+      <c r="L67" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3989,19 +4062,19 @@
       <c r="C68" t="s">
         <v>140</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="2">
-        <v>4</v>
-      </c>
-      <c r="G68"/>
+      <c r="F68" s="2">
+        <v>4</v>
+      </c>
       <c r="H68"/>
-      <c r="K68" t="s">
+      <c r="I68"/>
+      <c r="L68" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4011,19 +4084,19 @@
       <c r="C69" t="s">
         <v>142</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="2">
-        <v>4</v>
-      </c>
-      <c r="G69"/>
+      <c r="F69" s="2">
+        <v>4</v>
+      </c>
       <c r="H69"/>
-      <c r="K69" t="s">
+      <c r="I69"/>
+      <c r="L69" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4033,19 +4106,19 @@
       <c r="C70" t="s">
         <v>144</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="2">
-        <v>4</v>
-      </c>
-      <c r="G70"/>
+      <c r="F70" s="2">
+        <v>4</v>
+      </c>
       <c r="H70"/>
-      <c r="K70" t="s">
+      <c r="I70"/>
+      <c r="L70" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4055,19 +4128,19 @@
       <c r="C71" t="s">
         <v>146</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="2">
-        <v>4</v>
-      </c>
-      <c r="G71"/>
+      <c r="F71" s="2">
+        <v>4</v>
+      </c>
       <c r="H71"/>
-      <c r="K71" t="s">
+      <c r="I71"/>
+      <c r="L71" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4077,19 +4150,19 @@
       <c r="C72" t="s">
         <v>146</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="2">
-        <v>4</v>
-      </c>
-      <c r="G72"/>
+      <c r="F72" s="2">
+        <v>4</v>
+      </c>
       <c r="H72"/>
-      <c r="K72" t="s">
+      <c r="I72"/>
+      <c r="L72" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4099,19 +4172,19 @@
       <c r="C73" t="s">
         <v>149</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>150</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="2">
         <v>8</v>
       </c>
-      <c r="G73"/>
       <c r="H73"/>
-      <c r="K73" t="s">
+      <c r="I73"/>
+      <c r="L73" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>145</v>
       </c>
@@ -4122,22 +4195,25 @@
         <v>294</v>
       </c>
       <c r="D74" t="s">
+        <v>486</v>
+      </c>
+      <c r="E74" t="s">
         <v>181</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="2">
         <v>2</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="I74" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K74" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>114</v>
       </c>
@@ -4147,23 +4223,23 @@
       <c r="C75" t="s">
         <v>234</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>181</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="2">
         <v>2</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="H75" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="I75" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K75" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>115</v>
       </c>
@@ -4173,23 +4249,23 @@
       <c r="C76" t="s">
         <v>236</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <v>30</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="H76" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K76" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4199,19 +4275,19 @@
       <c r="C77" t="s">
         <v>158</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <v>255</v>
       </c>
-      <c r="G77"/>
       <c r="H77"/>
-      <c r="K77" t="s">
+      <c r="I77"/>
+      <c r="L77" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4221,19 +4297,19 @@
       <c r="C78" t="s">
         <v>160</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="2">
         <v>255</v>
       </c>
-      <c r="G78"/>
       <c r="H78"/>
-      <c r="K78" t="s">
+      <c r="I78"/>
+      <c r="L78" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4243,19 +4319,19 @@
       <c r="C79" t="s">
         <v>162</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="2">
-        <v>4</v>
-      </c>
-      <c r="G79"/>
+      <c r="F79" s="2">
+        <v>4</v>
+      </c>
       <c r="H79"/>
-      <c r="K79" t="s">
+      <c r="I79"/>
+      <c r="L79" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4265,19 +4341,19 @@
       <c r="C80" t="s">
         <v>164</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>150</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>8</v>
       </c>
-      <c r="G80"/>
       <c r="H80"/>
-      <c r="K80" t="s">
+      <c r="I80"/>
+      <c r="L80" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4287,19 +4363,19 @@
       <c r="C81" t="s">
         <v>166</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>150</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="2">
         <v>8</v>
       </c>
-      <c r="G81"/>
       <c r="H81"/>
-      <c r="K81" t="s">
+      <c r="I81"/>
+      <c r="L81" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4309,19 +4385,19 @@
       <c r="C82" t="s">
         <v>168</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="2">
-        <v>4</v>
-      </c>
-      <c r="G82"/>
+      <c r="F82" s="2">
+        <v>4</v>
+      </c>
       <c r="H82"/>
-      <c r="K82" t="s">
+      <c r="I82"/>
+      <c r="L82" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4331,16 +4407,16 @@
       <c r="C83" t="s">
         <v>170</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="2">
-        <v>4</v>
-      </c>
-      <c r="G83"/>
+      <c r="F83" s="2">
+        <v>4</v>
+      </c>
       <c r="H83"/>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4351,18 +4427,21 @@
         <v>172</v>
       </c>
       <c r="D84" t="s">
+        <v>487</v>
+      </c>
+      <c r="E84" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="2">
-        <v>4</v>
-      </c>
-      <c r="G84"/>
+      <c r="F84" s="2">
+        <v>4</v>
+      </c>
       <c r="H84"/>
-      <c r="K84" t="s">
+      <c r="I84"/>
+      <c r="L84" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4373,18 +4452,21 @@
         <v>174</v>
       </c>
       <c r="D85" t="s">
+        <v>487</v>
+      </c>
+      <c r="E85" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="2">
+      <c r="F85" s="2">
         <v>50</v>
       </c>
-      <c r="G85"/>
       <c r="H85"/>
-      <c r="K85" t="s">
+      <c r="I85"/>
+      <c r="L85" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4395,18 +4477,21 @@
         <v>176</v>
       </c>
       <c r="D86" t="s">
+        <v>487</v>
+      </c>
+      <c r="E86" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="2">
-        <v>4</v>
-      </c>
-      <c r="G86"/>
+      <c r="F86" s="2">
+        <v>4</v>
+      </c>
       <c r="H86"/>
-      <c r="K86" t="s">
+      <c r="I86"/>
+      <c r="L86" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4417,18 +4502,21 @@
         <v>178</v>
       </c>
       <c r="D87" t="s">
+        <v>487</v>
+      </c>
+      <c r="E87" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="2">
-        <v>4</v>
-      </c>
-      <c r="G87"/>
+      <c r="F87" s="2">
+        <v>4</v>
+      </c>
       <c r="H87"/>
-      <c r="K87" t="s">
+      <c r="I87"/>
+      <c r="L87" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4439,18 +4527,21 @@
         <v>180</v>
       </c>
       <c r="D88" t="s">
+        <v>486</v>
+      </c>
+      <c r="E88" t="s">
         <v>181</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="2">
         <v>2</v>
       </c>
-      <c r="G88"/>
       <c r="H88"/>
-      <c r="K88" t="s">
+      <c r="I88"/>
+      <c r="L88" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4461,18 +4552,21 @@
         <v>183</v>
       </c>
       <c r="D89" t="s">
+        <v>486</v>
+      </c>
+      <c r="E89" t="s">
         <v>181</v>
       </c>
-      <c r="E89" s="2">
+      <c r="F89" s="2">
         <v>2</v>
       </c>
-      <c r="G89"/>
       <c r="H89"/>
-      <c r="K89" t="s">
+      <c r="I89"/>
+      <c r="L89" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4483,18 +4577,21 @@
         <v>185</v>
       </c>
       <c r="D90" t="s">
+        <v>486</v>
+      </c>
+      <c r="E90" t="s">
         <v>181</v>
       </c>
-      <c r="E90" s="2">
+      <c r="F90" s="2">
         <v>2</v>
       </c>
-      <c r="G90"/>
       <c r="H90"/>
-      <c r="K90" t="s">
+      <c r="I90"/>
+      <c r="L90" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4505,18 +4602,21 @@
         <v>186</v>
       </c>
       <c r="D91" t="s">
+        <v>491</v>
+      </c>
+      <c r="E91" t="s">
         <v>181</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91" s="2">
         <v>2</v>
       </c>
-      <c r="G91"/>
       <c r="H91"/>
-      <c r="K91" t="s">
+      <c r="I91"/>
+      <c r="L91" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4527,18 +4627,21 @@
         <v>187</v>
       </c>
       <c r="D92" t="s">
+        <v>491</v>
+      </c>
+      <c r="E92" t="s">
         <v>181</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <v>2</v>
       </c>
-      <c r="G92"/>
       <c r="H92"/>
-      <c r="K92" t="s">
+      <c r="I92"/>
+      <c r="L92" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4548,19 +4651,19 @@
       <c r="C93" t="s">
         <v>188</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>150</v>
       </c>
-      <c r="E93" s="2">
+      <c r="F93" s="2">
         <v>8</v>
       </c>
-      <c r="G93"/>
       <c r="H93"/>
-      <c r="K93" t="s">
+      <c r="I93"/>
+      <c r="L93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4570,19 +4673,19 @@
       <c r="C94" t="s">
         <v>190</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>181</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="2">
         <v>2</v>
       </c>
-      <c r="G94"/>
       <c r="H94"/>
-      <c r="K94" t="s">
+      <c r="I94"/>
+      <c r="L94" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4592,19 +4695,19 @@
       <c r="C95" t="s">
         <v>192</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>181</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95" s="2">
         <v>2</v>
       </c>
-      <c r="G95"/>
       <c r="H95"/>
-      <c r="K95" t="s">
+      <c r="I95"/>
+      <c r="L95" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4614,19 +4717,19 @@
       <c r="C96" t="s">
         <v>194</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>181</v>
       </c>
-      <c r="E96" s="2">
+      <c r="F96" s="2">
         <v>2</v>
       </c>
-      <c r="G96"/>
       <c r="H96"/>
-      <c r="K96" t="s">
+      <c r="I96"/>
+      <c r="L96" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4636,19 +4739,19 @@
       <c r="C97" t="s">
         <v>196</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>181</v>
       </c>
-      <c r="E97" s="2">
+      <c r="F97" s="2">
         <v>2</v>
       </c>
-      <c r="G97"/>
       <c r="H97"/>
-      <c r="K97" t="s">
+      <c r="I97"/>
+      <c r="L97" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>116</v>
       </c>
@@ -4658,23 +4761,23 @@
       <c r="C98" t="s">
         <v>238</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98" s="2">
         <v>30</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="I98" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="K98" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L98" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>147</v>
       </c>
@@ -4684,23 +4787,23 @@
       <c r="C99" t="s">
         <v>298</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>181</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99" s="2">
         <v>2</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="I99" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K99" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>189</v>
       </c>
@@ -4710,23 +4813,23 @@
       <c r="C100" t="s">
         <v>377</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100" s="2">
         <v>8</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="I100" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K100" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L100" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>190</v>
       </c>
@@ -4736,23 +4839,23 @@
       <c r="C101" t="s">
         <v>379</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>241</v>
       </c>
-      <c r="E101" s="2">
-        <v>4</v>
-      </c>
-      <c r="G101" s="5" t="s">
+      <c r="F101" s="2">
+        <v>4</v>
+      </c>
+      <c r="H101" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="I101" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K101" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L101" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>135</v>
       </c>
@@ -4762,20 +4865,20 @@
       <c r="C102" t="s">
         <v>274</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>241</v>
       </c>
-      <c r="E102" s="2">
-        <v>4</v>
-      </c>
-      <c r="G102" s="5" t="s">
+      <c r="F102" s="2">
+        <v>4</v>
+      </c>
+      <c r="H102" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="K102" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L102" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>151</v>
       </c>
@@ -4786,25 +4889,28 @@
         <v>306</v>
       </c>
       <c r="D103" t="s">
+        <v>488</v>
+      </c>
+      <c r="E103" t="s">
         <v>181</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="2">
         <v>2</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="H103" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="I103" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>439</v>
       </c>
-      <c r="K103" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L103" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>158</v>
       </c>
@@ -4815,22 +4921,25 @@
         <v>306</v>
       </c>
       <c r="D104" t="s">
+        <v>488</v>
+      </c>
+      <c r="E104" t="s">
         <v>181</v>
       </c>
-      <c r="E104" s="2">
+      <c r="F104" s="2">
         <v>2</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="H104" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="I104" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K104" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>156</v>
       </c>
@@ -4841,19 +4950,22 @@
         <v>316</v>
       </c>
       <c r="D105" t="s">
+        <v>488</v>
+      </c>
+      <c r="E105" t="s">
         <v>14</v>
       </c>
-      <c r="E105" s="2">
+      <c r="F105" s="2">
         <v>255</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="I105" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K105" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L105" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>152</v>
       </c>
@@ -4864,22 +4976,25 @@
         <v>308</v>
       </c>
       <c r="D106" t="s">
+        <v>488</v>
+      </c>
+      <c r="E106" t="s">
         <v>181</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106" s="2">
         <v>2</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="H106" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="I106" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K106" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>146</v>
       </c>
@@ -4890,22 +5005,25 @@
         <v>296</v>
       </c>
       <c r="D107" t="s">
+        <v>488</v>
+      </c>
+      <c r="E107" t="s">
         <v>181</v>
       </c>
-      <c r="E107" s="2">
+      <c r="F107" s="2">
         <v>2</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="H107" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="I107" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K107" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>153</v>
       </c>
@@ -4916,25 +5034,28 @@
         <v>310</v>
       </c>
       <c r="D108" t="s">
+        <v>488</v>
+      </c>
+      <c r="E108" t="s">
         <v>241</v>
       </c>
-      <c r="E108" s="2">
-        <v>4</v>
-      </c>
-      <c r="G108" s="5" t="s">
+      <c r="F108" s="2">
+        <v>4</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="I108" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>439</v>
       </c>
-      <c r="K108" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L108" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>160</v>
       </c>
@@ -4945,22 +5066,25 @@
         <v>314</v>
       </c>
       <c r="D109" t="s">
+        <v>488</v>
+      </c>
+      <c r="E109" t="s">
         <v>241</v>
       </c>
-      <c r="E109" s="2">
-        <v>4</v>
-      </c>
-      <c r="G109" s="5" t="s">
+      <c r="F109" s="2">
+        <v>4</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="I109" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K109" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L109" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4971,18 +5095,21 @@
         <v>222</v>
       </c>
       <c r="D110" t="s">
+        <v>486</v>
+      </c>
+      <c r="E110" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="2">
+      <c r="F110" s="2">
         <v>50</v>
       </c>
-      <c r="G110"/>
       <c r="H110"/>
-      <c r="K110" t="s">
+      <c r="I110"/>
+      <c r="L110" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>159</v>
       </c>
@@ -4993,22 +5120,25 @@
         <v>310</v>
       </c>
       <c r="D111" t="s">
+        <v>488</v>
+      </c>
+      <c r="E111" t="s">
         <v>241</v>
       </c>
-      <c r="E111" s="2">
-        <v>4</v>
-      </c>
-      <c r="G111" s="5" t="s">
+      <c r="F111" s="2">
+        <v>4</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="I111" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K111" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L111" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>154</v>
       </c>
@@ -5019,22 +5149,25 @@
         <v>312</v>
       </c>
       <c r="D112" t="s">
+        <v>488</v>
+      </c>
+      <c r="E112" t="s">
         <v>241</v>
       </c>
-      <c r="E112" s="2">
-        <v>4</v>
-      </c>
-      <c r="G112" s="5" t="s">
+      <c r="F112" s="2">
+        <v>4</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="I112" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K112" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L112" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>155</v>
       </c>
@@ -5045,22 +5178,25 @@
         <v>314</v>
       </c>
       <c r="D113" t="s">
+        <v>488</v>
+      </c>
+      <c r="E113" t="s">
         <v>241</v>
       </c>
-      <c r="E113" s="2">
-        <v>4</v>
-      </c>
-      <c r="G113" s="5" t="s">
+      <c r="F113" s="2">
+        <v>4</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="I113" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K113" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L113" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>109</v>
       </c>
@@ -5071,25 +5207,28 @@
         <v>224</v>
       </c>
       <c r="D114" t="s">
+        <v>488</v>
+      </c>
+      <c r="E114" t="s">
         <v>181</v>
       </c>
-      <c r="E114" s="2">
+      <c r="F114" s="2">
         <v>2</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="H114" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="I114" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>439</v>
       </c>
-      <c r="K114" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L114" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -5099,23 +5238,23 @@
       <c r="C115" t="s">
         <v>243</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>150</v>
       </c>
-      <c r="E115" s="2">
+      <c r="F115" s="2">
         <v>8</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="H115" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K115" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L115" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>120</v>
       </c>
@@ -5125,23 +5264,23 @@
       <c r="C116" t="s">
         <v>245</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>241</v>
       </c>
-      <c r="E116" s="2">
-        <v>4</v>
-      </c>
-      <c r="G116" s="5" t="s">
+      <c r="F116" s="2">
+        <v>4</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="I116" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K116" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L116" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>121</v>
       </c>
@@ -5151,20 +5290,20 @@
       <c r="C117" t="s">
         <v>247</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>241</v>
       </c>
-      <c r="E117" s="2">
-        <v>4</v>
-      </c>
-      <c r="G117" s="5" t="s">
+      <c r="F117" s="2">
+        <v>4</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="K117" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L117" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5174,23 +5313,23 @@
       <c r="C118" t="s">
         <v>242</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>150</v>
       </c>
-      <c r="E118" s="2">
+      <c r="F118" s="2">
         <v>8</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="I118" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K118" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L118" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5200,23 +5339,23 @@
       <c r="C119" t="s">
         <v>240</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>241</v>
       </c>
-      <c r="E119" s="2">
-        <v>4</v>
-      </c>
-      <c r="G119" s="5" t="s">
+      <c r="F119" s="2">
+        <v>4</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="I119" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K119" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>72</v>
       </c>
@@ -5226,20 +5365,20 @@
       <c r="C120" t="s">
         <v>152</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>150</v>
       </c>
-      <c r="E120" s="2">
+      <c r="F120" s="2">
         <v>8</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K120" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>74</v>
       </c>
@@ -5249,20 +5388,20 @@
       <c r="C121" t="s">
         <v>156</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>150</v>
       </c>
-      <c r="E121" s="2">
+      <c r="F121" s="2">
         <v>8</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="H121" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="K121" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L121" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5272,23 +5411,23 @@
       <c r="C122" t="s">
         <v>249</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>241</v>
       </c>
-      <c r="E122" s="2">
-        <v>4</v>
-      </c>
-      <c r="G122" s="5" t="s">
+      <c r="F122" s="2">
+        <v>4</v>
+      </c>
+      <c r="H122" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="I122" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K122" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>157</v>
       </c>
@@ -5298,23 +5437,23 @@
       <c r="C123" t="s">
         <v>317</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>150</v>
       </c>
-      <c r="E123" s="2">
+      <c r="F123" s="2">
         <v>8</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="H123" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="I123" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K123" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>111</v>
       </c>
@@ -5325,19 +5464,22 @@
         <v>228</v>
       </c>
       <c r="D124" t="s">
+        <v>489</v>
+      </c>
+      <c r="E124" t="s">
         <v>14</v>
       </c>
-      <c r="E124" s="2">
+      <c r="F124" s="2">
         <v>50</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="I124" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K124" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>112</v>
       </c>
@@ -5348,19 +5490,22 @@
         <v>230</v>
       </c>
       <c r="D125" t="s">
+        <v>489</v>
+      </c>
+      <c r="E125" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="2">
+      <c r="F125" s="2">
         <v>50</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="I125" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K125" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>73</v>
       </c>
@@ -5370,20 +5515,20 @@
       <c r="C126" t="s">
         <v>154</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>150</v>
       </c>
-      <c r="E126" s="2">
+      <c r="F126" s="2">
         <v>8</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="H126" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="K126" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L126" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5393,19 +5538,19 @@
       <c r="C127" t="s">
         <v>255</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>14</v>
       </c>
-      <c r="E127" s="2">
+      <c r="F127" s="2">
         <v>12</v>
       </c>
-      <c r="G127"/>
       <c r="H127"/>
-      <c r="K127" t="s">
+      <c r="I127"/>
+      <c r="L127" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5415,19 +5560,19 @@
       <c r="C128" t="s">
         <v>257</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="2">
-        <v>4</v>
-      </c>
-      <c r="G128"/>
+      <c r="F128" s="2">
+        <v>4</v>
+      </c>
       <c r="H128"/>
-      <c r="K128" t="s">
+      <c r="I128"/>
+      <c r="L128" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5437,19 +5582,19 @@
       <c r="C129" t="s">
         <v>259</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>181</v>
       </c>
-      <c r="E129" s="2">
+      <c r="F129" s="2">
         <v>2</v>
       </c>
-      <c r="G129"/>
       <c r="H129"/>
-      <c r="K129" t="s">
+      <c r="I129"/>
+      <c r="L129" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5459,19 +5604,19 @@
       <c r="C130" t="s">
         <v>261</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>14</v>
       </c>
-      <c r="E130" s="2">
+      <c r="F130" s="2">
         <v>45</v>
       </c>
-      <c r="G130"/>
       <c r="H130"/>
-      <c r="K130" t="s">
+      <c r="I130"/>
+      <c r="L130" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5481,19 +5626,19 @@
       <c r="C131" t="s">
         <v>263</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>14</v>
       </c>
-      <c r="E131" s="2">
+      <c r="F131" s="2">
         <v>15</v>
       </c>
-      <c r="G131"/>
       <c r="H131"/>
-      <c r="K131" t="s">
+      <c r="I131"/>
+      <c r="L131" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5503,19 +5648,19 @@
       <c r="C132" t="s">
         <v>265</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>181</v>
       </c>
-      <c r="E132" s="2">
+      <c r="F132" s="2">
         <v>2</v>
       </c>
-      <c r="G132"/>
       <c r="H132"/>
-      <c r="K132" t="s">
+      <c r="I132"/>
+      <c r="L132" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5525,19 +5670,19 @@
       <c r="C133" t="s">
         <v>266</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>181</v>
       </c>
-      <c r="E133" s="2">
+      <c r="F133" s="2">
         <v>2</v>
       </c>
-      <c r="G133"/>
       <c r="H133"/>
-      <c r="K133" t="s">
+      <c r="I133"/>
+      <c r="L133" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5547,19 +5692,19 @@
       <c r="C134" t="s">
         <v>268</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>181</v>
       </c>
-      <c r="E134" s="2">
+      <c r="F134" s="2">
         <v>2</v>
       </c>
-      <c r="G134"/>
       <c r="H134"/>
-      <c r="K134" t="s">
+      <c r="I134"/>
+      <c r="L134" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5569,19 +5714,19 @@
       <c r="C135" t="s">
         <v>270</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>150</v>
       </c>
-      <c r="E135" s="2">
+      <c r="F135" s="2">
         <v>8</v>
       </c>
-      <c r="G135"/>
       <c r="H135"/>
-      <c r="K135" t="s">
+      <c r="I135"/>
+      <c r="L135" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5591,19 +5736,19 @@
       <c r="C136" t="s">
         <v>272</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>150</v>
       </c>
-      <c r="E136" s="2">
+      <c r="F136" s="2">
         <v>8</v>
       </c>
-      <c r="G136"/>
       <c r="H136"/>
-      <c r="K136" t="s">
+      <c r="I136"/>
+      <c r="L136" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>169</v>
       </c>
@@ -5614,22 +5759,25 @@
         <v>338</v>
       </c>
       <c r="D137" t="s">
+        <v>488</v>
+      </c>
+      <c r="E137" t="s">
         <v>241</v>
       </c>
-      <c r="E137" s="2">
-        <v>4</v>
-      </c>
-      <c r="G137" s="5" t="s">
+      <c r="F137" s="2">
+        <v>4</v>
+      </c>
+      <c r="H137" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="I137" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K137" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L137" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>167</v>
       </c>
@@ -5640,22 +5788,25 @@
         <v>334</v>
       </c>
       <c r="D138" t="s">
+        <v>488</v>
+      </c>
+      <c r="E138" t="s">
         <v>241</v>
       </c>
-      <c r="E138" s="2">
-        <v>4</v>
-      </c>
-      <c r="G138" s="5" t="s">
+      <c r="F138" s="2">
+        <v>4</v>
+      </c>
+      <c r="H138" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="I138" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K138" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L138" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>168</v>
       </c>
@@ -5666,22 +5817,25 @@
         <v>336</v>
       </c>
       <c r="D139" t="s">
+        <v>488</v>
+      </c>
+      <c r="E139" t="s">
         <v>241</v>
       </c>
-      <c r="E139" s="2">
-        <v>4</v>
-      </c>
-      <c r="G139" s="5" t="s">
+      <c r="F139" s="2">
+        <v>4</v>
+      </c>
+      <c r="H139" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="I139" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K139" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L139" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>166</v>
       </c>
@@ -5692,22 +5846,25 @@
         <v>332</v>
       </c>
       <c r="D140" t="s">
+        <v>486</v>
+      </c>
+      <c r="E140" t="s">
         <v>241</v>
       </c>
-      <c r="E140" s="2">
-        <v>4</v>
-      </c>
-      <c r="G140" s="5" t="s">
+      <c r="F140" s="2">
+        <v>4</v>
+      </c>
+      <c r="H140" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="I140" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K140" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L140" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>164</v>
       </c>
@@ -5718,22 +5875,25 @@
         <v>328</v>
       </c>
       <c r="D141" t="s">
+        <v>486</v>
+      </c>
+      <c r="E141" t="s">
         <v>241</v>
       </c>
-      <c r="E141" s="2">
-        <v>4</v>
-      </c>
-      <c r="G141" s="5" t="s">
+      <c r="F141" s="2">
+        <v>4</v>
+      </c>
+      <c r="H141" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="I141" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K141" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L141" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>165</v>
       </c>
@@ -5744,22 +5904,25 @@
         <v>330</v>
       </c>
       <c r="D142" t="s">
+        <v>486</v>
+      </c>
+      <c r="E142" t="s">
         <v>241</v>
       </c>
-      <c r="E142" s="2">
-        <v>4</v>
-      </c>
-      <c r="G142" s="5" t="s">
+      <c r="F142" s="2">
+        <v>4</v>
+      </c>
+      <c r="H142" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="I142" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K142" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L142" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>172</v>
       </c>
@@ -5770,22 +5933,25 @@
         <v>344</v>
       </c>
       <c r="D143" t="s">
+        <v>487</v>
+      </c>
+      <c r="E143" t="s">
         <v>241</v>
       </c>
-      <c r="E143" s="2">
-        <v>4</v>
-      </c>
-      <c r="G143" s="5" t="s">
+      <c r="F143" s="2">
+        <v>4</v>
+      </c>
+      <c r="H143" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="I143" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K143" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L143" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>170</v>
       </c>
@@ -5796,22 +5962,25 @@
         <v>340</v>
       </c>
       <c r="D144" t="s">
+        <v>487</v>
+      </c>
+      <c r="E144" t="s">
         <v>241</v>
       </c>
-      <c r="E144" s="2">
-        <v>4</v>
-      </c>
-      <c r="G144" s="5" t="s">
+      <c r="F144" s="2">
+        <v>4</v>
+      </c>
+      <c r="H144" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="I144" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K144" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L144" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>171</v>
       </c>
@@ -5822,22 +5991,25 @@
         <v>342</v>
       </c>
       <c r="D145" t="s">
+        <v>487</v>
+      </c>
+      <c r="E145" t="s">
         <v>241</v>
       </c>
-      <c r="E145" s="2">
-        <v>4</v>
-      </c>
-      <c r="G145" s="5" t="s">
+      <c r="F145" s="2">
+        <v>4</v>
+      </c>
+      <c r="H145" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="I145" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K145" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L145" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>143</v>
       </c>
@@ -5847,23 +6019,23 @@
       <c r="C146" t="s">
         <v>290</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>241</v>
       </c>
-      <c r="E146" s="2">
-        <v>4</v>
-      </c>
-      <c r="G146" s="5" t="s">
+      <c r="F146" s="2">
+        <v>4</v>
+      </c>
+      <c r="H146" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="I146" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K146" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L146" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>187</v>
       </c>
@@ -5873,23 +6045,24 @@
       <c r="C147" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="7"/>
+      <c r="E147" t="s">
         <v>241</v>
       </c>
-      <c r="E147" s="2">
-        <v>4</v>
-      </c>
-      <c r="G147" s="5" t="s">
+      <c r="F147" s="2">
+        <v>4</v>
+      </c>
+      <c r="H147" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="I147" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K147" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L147" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>124</v>
       </c>
@@ -5899,26 +6072,27 @@
       <c r="C148" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="6"/>
+      <c r="E148" t="s">
         <v>241</v>
       </c>
-      <c r="E148" s="2">
-        <v>4</v>
-      </c>
-      <c r="G148" s="5" t="s">
+      <c r="F148" s="2">
+        <v>4</v>
+      </c>
+      <c r="H148" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="I148" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>439</v>
       </c>
-      <c r="K148" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L148" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>144</v>
       </c>
@@ -5928,26 +6102,27 @@
       <c r="C149" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="6"/>
+      <c r="E149" t="s">
         <v>241</v>
       </c>
-      <c r="E149" s="2">
-        <v>4</v>
-      </c>
-      <c r="G149" s="5" t="s">
+      <c r="F149" s="2">
+        <v>4</v>
+      </c>
+      <c r="H149" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="I149" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>439</v>
       </c>
-      <c r="K149" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L149" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>123</v>
       </c>
@@ -5957,23 +6132,23 @@
       <c r="C150" t="s">
         <v>251</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>241</v>
       </c>
-      <c r="E150" s="2">
-        <v>4</v>
-      </c>
-      <c r="G150" s="5" t="s">
+      <c r="F150" s="2">
+        <v>4</v>
+      </c>
+      <c r="H150" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="I150" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K150" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L150" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>186</v>
       </c>
@@ -5983,23 +6158,24 @@
       <c r="C151" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="7"/>
+      <c r="E151" t="s">
         <v>241</v>
       </c>
-      <c r="E151" s="2">
-        <v>4</v>
-      </c>
-      <c r="G151" s="5" t="s">
+      <c r="F151" s="2">
+        <v>4</v>
+      </c>
+      <c r="H151" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="I151" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K151" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L151" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>179</v>
       </c>
@@ -6010,22 +6186,25 @@
         <v>358</v>
       </c>
       <c r="D152" t="s">
+        <v>489</v>
+      </c>
+      <c r="E152" t="s">
         <v>241</v>
       </c>
-      <c r="E152" s="2">
-        <v>4</v>
-      </c>
-      <c r="G152" s="5" t="s">
+      <c r="F152" s="2">
+        <v>4</v>
+      </c>
+      <c r="H152" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="I152" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K152" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L152" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>177</v>
       </c>
@@ -6036,22 +6215,25 @@
         <v>354</v>
       </c>
       <c r="D153" t="s">
+        <v>489</v>
+      </c>
+      <c r="E153" t="s">
         <v>241</v>
       </c>
-      <c r="E153" s="2">
-        <v>4</v>
-      </c>
-      <c r="G153" s="5" t="s">
+      <c r="F153" s="2">
+        <v>4</v>
+      </c>
+      <c r="H153" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="I153" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K153" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L153" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>178</v>
       </c>
@@ -6062,22 +6244,25 @@
         <v>356</v>
       </c>
       <c r="D154" t="s">
+        <v>489</v>
+      </c>
+      <c r="E154" t="s">
         <v>241</v>
       </c>
-      <c r="E154" s="2">
-        <v>4</v>
-      </c>
-      <c r="G154" s="5" t="s">
+      <c r="F154" s="2">
+        <v>4</v>
+      </c>
+      <c r="H154" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="I154" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K154" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L154" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>175</v>
       </c>
@@ -6088,22 +6273,25 @@
         <v>350</v>
       </c>
       <c r="D155" t="s">
+        <v>490</v>
+      </c>
+      <c r="E155" t="s">
         <v>241</v>
       </c>
-      <c r="E155" s="2">
-        <v>4</v>
-      </c>
-      <c r="G155" s="5" t="s">
+      <c r="F155" s="2">
+        <v>4</v>
+      </c>
+      <c r="H155" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="I155" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K155" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L155" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>173</v>
       </c>
@@ -6114,22 +6302,25 @@
         <v>346</v>
       </c>
       <c r="D156" t="s">
+        <v>490</v>
+      </c>
+      <c r="E156" t="s">
         <v>241</v>
       </c>
-      <c r="E156" s="2">
-        <v>4</v>
-      </c>
-      <c r="G156" s="5" t="s">
+      <c r="F156" s="2">
+        <v>4</v>
+      </c>
+      <c r="H156" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H156" s="5" t="s">
+      <c r="I156" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K156" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L156" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>174</v>
       </c>
@@ -6140,22 +6331,25 @@
         <v>348</v>
       </c>
       <c r="D157" t="s">
+        <v>490</v>
+      </c>
+      <c r="E157" t="s">
         <v>241</v>
       </c>
-      <c r="E157" s="2">
-        <v>4</v>
-      </c>
-      <c r="G157" s="5" t="s">
+      <c r="F157" s="2">
+        <v>4</v>
+      </c>
+      <c r="H157" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="I157" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K157" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L157" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>163</v>
       </c>
@@ -6166,22 +6360,25 @@
         <v>326</v>
       </c>
       <c r="D158" t="s">
+        <v>491</v>
+      </c>
+      <c r="E158" t="s">
         <v>241</v>
       </c>
-      <c r="E158" s="2">
-        <v>4</v>
-      </c>
-      <c r="G158" s="5" t="s">
+      <c r="F158" s="2">
+        <v>4</v>
+      </c>
+      <c r="H158" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="H158" s="5" t="s">
+      <c r="I158" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K158" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L158" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>161</v>
       </c>
@@ -6192,22 +6389,25 @@
         <v>322</v>
       </c>
       <c r="D159" t="s">
+        <v>491</v>
+      </c>
+      <c r="E159" t="s">
         <v>241</v>
       </c>
-      <c r="E159" s="2">
-        <v>4</v>
-      </c>
-      <c r="G159" s="5" t="s">
+      <c r="F159" s="2">
+        <v>4</v>
+      </c>
+      <c r="H159" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="I159" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K159" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L159" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>162</v>
       </c>
@@ -6218,22 +6418,25 @@
         <v>324</v>
       </c>
       <c r="D160" t="s">
+        <v>491</v>
+      </c>
+      <c r="E160" t="s">
         <v>241</v>
       </c>
-      <c r="E160" s="2">
-        <v>4</v>
-      </c>
-      <c r="G160" s="5" t="s">
+      <c r="F160" s="2">
+        <v>4</v>
+      </c>
+      <c r="H160" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="H160" s="5" t="s">
+      <c r="I160" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K160" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L160" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>138</v>
       </c>
@@ -6244,22 +6447,25 @@
         <v>280</v>
       </c>
       <c r="D161" t="s">
+        <v>492</v>
+      </c>
+      <c r="E161" t="s">
         <v>181</v>
       </c>
-      <c r="E161" s="2">
+      <c r="F161" s="2">
         <v>2</v>
       </c>
-      <c r="G161" s="5" t="s">
+      <c r="H161" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H161" s="5" t="s">
+      <c r="I161" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K161" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L161" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>100</v>
       </c>
@@ -6270,22 +6476,25 @@
         <v>206</v>
       </c>
       <c r="D162" t="s">
+        <v>488</v>
+      </c>
+      <c r="E162" t="s">
         <v>181</v>
       </c>
-      <c r="E162" s="2">
+      <c r="F162" s="2">
         <v>2</v>
       </c>
-      <c r="G162" s="5" t="s">
+      <c r="H162" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H162" s="5" t="s">
+      <c r="I162" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K162" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>101</v>
       </c>
@@ -6296,22 +6505,25 @@
         <v>208</v>
       </c>
       <c r="D163" t="s">
+        <v>492</v>
+      </c>
+      <c r="E163" t="s">
         <v>181</v>
       </c>
-      <c r="E163" s="2">
+      <c r="F163" s="2">
         <v>2</v>
       </c>
-      <c r="G163" s="5" t="s">
+      <c r="H163" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="H163" s="5" t="s">
+      <c r="I163" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K163" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>148</v>
       </c>
@@ -6322,22 +6534,25 @@
         <v>300</v>
       </c>
       <c r="D164" t="s">
+        <v>492</v>
+      </c>
+      <c r="E164" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="2">
+      <c r="F164" s="2">
         <v>255</v>
       </c>
-      <c r="G164" s="5" t="s">
+      <c r="H164" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="H164" s="5" t="s">
+      <c r="I164" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K164" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L164" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>137</v>
       </c>
@@ -6348,22 +6563,25 @@
         <v>278</v>
       </c>
       <c r="D165" t="s">
+        <v>486</v>
+      </c>
+      <c r="E165" t="s">
         <v>181</v>
       </c>
-      <c r="E165" s="2">
+      <c r="F165" s="2">
         <v>2</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="H165" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="H165" s="5" t="s">
+      <c r="I165" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K165" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L165" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>98</v>
       </c>
@@ -6374,22 +6592,25 @@
         <v>202</v>
       </c>
       <c r="D166" t="s">
+        <v>486</v>
+      </c>
+      <c r="E166" t="s">
         <v>181</v>
       </c>
-      <c r="E166" s="2">
+      <c r="F166" s="2">
         <v>2</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="H166" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="I166" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K166" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L166" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>99</v>
       </c>
@@ -6400,22 +6621,25 @@
         <v>204</v>
       </c>
       <c r="D167" t="s">
+        <v>486</v>
+      </c>
+      <c r="E167" t="s">
         <v>181</v>
       </c>
-      <c r="E167" s="2">
+      <c r="F167" s="2">
         <v>2</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="H167" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="I167" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K167" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L167" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>139</v>
       </c>
@@ -6426,22 +6650,25 @@
         <v>282</v>
       </c>
       <c r="D168" t="s">
+        <v>487</v>
+      </c>
+      <c r="E168" t="s">
         <v>181</v>
       </c>
-      <c r="E168" s="2">
+      <c r="F168" s="2">
         <v>2</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="H168" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="I168" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K168" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L168" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>102</v>
       </c>
@@ -6452,22 +6679,25 @@
         <v>210</v>
       </c>
       <c r="D169" t="s">
+        <v>487</v>
+      </c>
+      <c r="E169" t="s">
         <v>181</v>
       </c>
-      <c r="E169" s="2">
+      <c r="F169" s="2">
         <v>2</v>
       </c>
-      <c r="G169" s="5" t="s">
+      <c r="H169" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H169" s="5" t="s">
+      <c r="I169" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K169" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L169" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>103</v>
       </c>
@@ -6478,22 +6708,25 @@
         <v>212</v>
       </c>
       <c r="D170" t="s">
+        <v>487</v>
+      </c>
+      <c r="E170" t="s">
         <v>181</v>
       </c>
-      <c r="E170" s="2">
+      <c r="F170" s="2">
         <v>2</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="H170" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H170" s="5" t="s">
+      <c r="I170" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K170" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L170" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>142</v>
       </c>
@@ -6503,23 +6736,23 @@
       <c r="C171" t="s">
         <v>288</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>181</v>
       </c>
-      <c r="E171" s="2">
+      <c r="F171" s="2">
         <v>2</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="H171" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="H171" s="5" t="s">
+      <c r="I171" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K171" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>182</v>
       </c>
@@ -6529,20 +6762,20 @@
       <c r="C172" t="s">
         <v>364</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>14</v>
       </c>
-      <c r="E172" s="2">
+      <c r="F172" s="2">
         <v>255</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="I172" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K172" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L172" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>185</v>
       </c>
@@ -6552,23 +6785,23 @@
       <c r="C173" t="s">
         <v>370</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>181</v>
       </c>
-      <c r="E173" s="2">
+      <c r="F173" s="2">
         <v>2</v>
       </c>
-      <c r="G173" s="5" t="s">
+      <c r="H173" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="H173" s="5" t="s">
+      <c r="I173" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K173" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>180</v>
       </c>
@@ -6578,23 +6811,23 @@
       <c r="C174" t="s">
         <v>360</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>181</v>
       </c>
-      <c r="E174" s="2">
+      <c r="F174" s="2">
         <v>2</v>
       </c>
-      <c r="H174" s="5" t="s">
+      <c r="I174" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I174" t="s">
+      <c r="J174" t="s">
         <v>468</v>
       </c>
-      <c r="K174" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L174" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>107</v>
       </c>
@@ -6604,23 +6837,23 @@
       <c r="C175" t="s">
         <v>220</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>181</v>
       </c>
-      <c r="E175" s="2">
+      <c r="F175" s="2">
         <v>2</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="H175" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="I175" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K175" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>181</v>
       </c>
@@ -6630,20 +6863,20 @@
       <c r="C176" t="s">
         <v>362</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>14</v>
       </c>
-      <c r="E176" s="2">
+      <c r="F176" s="2">
         <v>255</v>
       </c>
-      <c r="H176" s="5" t="s">
+      <c r="I176" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K176" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L176" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>184</v>
       </c>
@@ -6653,23 +6886,23 @@
       <c r="C177" t="s">
         <v>368</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="2">
+      <c r="F177" s="2">
         <v>2</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="H177" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="H177" s="5" t="s">
+      <c r="I177" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K177" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>106</v>
       </c>
@@ -6680,25 +6913,28 @@
         <v>218</v>
       </c>
       <c r="D178" t="s">
+        <v>489</v>
+      </c>
+      <c r="E178" t="s">
         <v>181</v>
       </c>
-      <c r="E178" s="2">
+      <c r="F178" s="2">
         <v>2</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="H178" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="H178" s="5" t="s">
+      <c r="I178" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
         <v>439</v>
       </c>
-      <c r="K178" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L178" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>141</v>
       </c>
@@ -6709,22 +6945,25 @@
         <v>286</v>
       </c>
       <c r="D179" t="s">
+        <v>489</v>
+      </c>
+      <c r="E179" t="s">
         <v>181</v>
       </c>
-      <c r="E179" s="2">
+      <c r="F179" s="2">
         <v>2</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="H179" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H179" s="5" t="s">
+      <c r="I179" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K179" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>176</v>
       </c>
@@ -6735,22 +6974,25 @@
         <v>352</v>
       </c>
       <c r="D180" t="s">
+        <v>489</v>
+      </c>
+      <c r="E180" t="s">
         <v>181</v>
       </c>
-      <c r="E180" s="2">
+      <c r="F180" s="2">
         <v>2</v>
       </c>
-      <c r="G180" s="5" t="s">
+      <c r="H180" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="H180" s="5" t="s">
+      <c r="I180" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K180" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L180" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>183</v>
       </c>
@@ -6761,22 +7003,25 @@
         <v>366</v>
       </c>
       <c r="D181" t="s">
+        <v>489</v>
+      </c>
+      <c r="E181" t="s">
         <v>181</v>
       </c>
-      <c r="E181" s="2">
+      <c r="F181" s="2">
         <v>2</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="H181" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="H181" s="5" t="s">
+      <c r="I181" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K181" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L181" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>140</v>
       </c>
@@ -6787,22 +7032,25 @@
         <v>284</v>
       </c>
       <c r="D182" t="s">
+        <v>490</v>
+      </c>
+      <c r="E182" t="s">
         <v>181</v>
       </c>
-      <c r="E182" s="2">
+      <c r="F182" s="2">
         <v>2</v>
       </c>
-      <c r="G182" s="5" t="s">
+      <c r="H182" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="H182" s="5" t="s">
+      <c r="I182" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K182" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>104</v>
       </c>
@@ -6813,22 +7061,25 @@
         <v>214</v>
       </c>
       <c r="D183" t="s">
+        <v>490</v>
+      </c>
+      <c r="E183" t="s">
         <v>181</v>
       </c>
-      <c r="E183" s="2">
+      <c r="F183" s="2">
         <v>2</v>
       </c>
-      <c r="G183" s="5" t="s">
+      <c r="H183" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H183" s="5" t="s">
+      <c r="I183" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K183" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L183" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>105</v>
       </c>
@@ -6839,22 +7090,25 @@
         <v>216</v>
       </c>
       <c r="D184" t="s">
+        <v>490</v>
+      </c>
+      <c r="E184" t="s">
         <v>181</v>
       </c>
-      <c r="E184" s="2">
+      <c r="F184" s="2">
         <v>2</v>
       </c>
-      <c r="G184" s="5" t="s">
+      <c r="H184" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="H184" s="5" t="s">
+      <c r="I184" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K184" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L184" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>136</v>
       </c>
@@ -6865,22 +7119,25 @@
         <v>276</v>
       </c>
       <c r="D185" t="s">
+        <v>491</v>
+      </c>
+      <c r="E185" t="s">
         <v>181</v>
       </c>
-      <c r="E185" s="2">
+      <c r="F185" s="2">
         <v>2</v>
       </c>
-      <c r="G185" s="5" t="s">
+      <c r="H185" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="H185" s="5" t="s">
+      <c r="I185" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K185" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>96</v>
       </c>
@@ -6891,22 +7148,25 @@
         <v>198</v>
       </c>
       <c r="D186" t="s">
+        <v>491</v>
+      </c>
+      <c r="E186" t="s">
         <v>181</v>
       </c>
-      <c r="E186" s="2">
+      <c r="F186" s="2">
         <v>2</v>
       </c>
-      <c r="G186" s="5" t="s">
+      <c r="H186" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="H186" s="5" t="s">
+      <c r="I186" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K186" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>149</v>
       </c>
@@ -6917,22 +7177,25 @@
         <v>302</v>
       </c>
       <c r="D187" t="s">
+        <v>491</v>
+      </c>
+      <c r="E187" t="s">
         <v>181</v>
       </c>
-      <c r="E187" s="2">
+      <c r="F187" s="2">
         <v>2</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="H187" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="H187" s="5" t="s">
+      <c r="I187" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K187" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L187" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>97</v>
       </c>
@@ -6943,22 +7206,25 @@
         <v>200</v>
       </c>
       <c r="D188" t="s">
+        <v>491</v>
+      </c>
+      <c r="E188" t="s">
         <v>181</v>
       </c>
-      <c r="E188" s="2">
+      <c r="F188" s="2">
         <v>2</v>
       </c>
-      <c r="G188" s="5" t="s">
+      <c r="H188" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="H188" s="5" t="s">
+      <c r="I188" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K188" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>113</v>
       </c>
@@ -6968,23 +7234,23 @@
       <c r="C189" t="s">
         <v>232</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>14</v>
       </c>
-      <c r="E189" s="2">
+      <c r="F189" s="2">
         <v>255</v>
       </c>
-      <c r="H189" s="5" t="s">
+      <c r="I189" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I189" t="s">
+      <c r="J189" t="s">
         <v>439</v>
       </c>
-      <c r="K189" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>150</v>
       </c>
@@ -6994,23 +7260,23 @@
       <c r="C190" t="s">
         <v>304</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>14</v>
       </c>
-      <c r="E190" s="2">
+      <c r="F190" s="2">
         <v>255</v>
       </c>
-      <c r="G190" s="5" t="s">
+      <c r="H190" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="H190" s="5" t="s">
+      <c r="I190" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K190" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L190" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>188</v>
       </c>
@@ -7020,23 +7286,23 @@
       <c r="C191" t="s">
         <v>375</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>241</v>
       </c>
-      <c r="E191" s="2">
-        <v>4</v>
-      </c>
-      <c r="G191" s="5" t="s">
+      <c r="F191" s="2">
+        <v>4</v>
+      </c>
+      <c r="H191" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="H191" s="5" t="s">
+      <c r="I191" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K191" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L191" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7047,22 +7313,25 @@
         <v>381</v>
       </c>
       <c r="D192" t="s">
+        <v>493</v>
+      </c>
+      <c r="E192" t="s">
         <v>150</v>
       </c>
-      <c r="E192" s="2">
+      <c r="F192" s="2">
         <v>8</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="H192" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="H192" s="5" t="s">
+      <c r="I192" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K192" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L192" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7073,22 +7342,25 @@
         <v>471</v>
       </c>
       <c r="D193" t="s">
+        <v>493</v>
+      </c>
+      <c r="E193" t="s">
         <v>241</v>
       </c>
-      <c r="E193" s="2">
-        <v>4</v>
-      </c>
-      <c r="G193" s="5" t="s">
+      <c r="F193" s="2">
+        <v>4</v>
+      </c>
+      <c r="H193" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="H193" s="5" t="s">
+      <c r="I193" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K193" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>110</v>
       </c>
@@ -7099,18 +7371,21 @@
         <v>226</v>
       </c>
       <c r="D194" t="s">
+        <v>488</v>
+      </c>
+      <c r="E194" t="s">
         <v>150</v>
       </c>
-      <c r="E194" s="2">
+      <c r="F194" s="2">
         <v>8</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="I194" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I194" t="s">
+      <c r="J194" t="s">
         <v>475</v>
       </c>
-      <c r="K194" t="s">
+      <c r="L194" t="s">
         <v>388</v>
       </c>
     </row>
